--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\DataModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
     <sheet name="MemberAddresses" sheetId="4" r:id="rId2"/>
     <sheet name="PaymentCard" sheetId="5" r:id="rId3"/>
+    <sheet name="MemberInterest" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="210">
   <si>
     <t>RenewalID</t>
   </si>
@@ -556,18 +562,108 @@
   </si>
   <si>
     <t>Diners-Club-Carte-Blanche</t>
+  </si>
+  <si>
+    <t>Acting</t>
+  </si>
+  <si>
+    <t>Video Games</t>
+  </si>
+  <si>
+    <t>Crossword Puzzles</t>
+  </si>
+  <si>
+    <t>Calligraphy</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>Woodworking</t>
+  </si>
+  <si>
+    <t>Juggling</t>
+  </si>
+  <si>
+    <t>Quilting</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Sewing</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>Botany</t>
+  </si>
+  <si>
+    <t>Skating</t>
+  </si>
+  <si>
+    <t>Dancing</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Foreign Languages</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>Homebrewing</t>
+  </si>
+  <si>
+    <t>Geneology</t>
+  </si>
+  <si>
+    <t>Surfing</t>
+  </si>
+  <si>
+    <t>Amateur Radio</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Singing</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Pottery</t>
+  </si>
+  <si>
+    <t>MemberID</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Scrapbooking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="167" formatCode="\'yyyy\-mm\-dd\'"/>
-    <numFmt numFmtId="168" formatCode="\'yyyy\-mm\-dd\'\,"/>
-    <numFmt numFmtId="169" formatCode="\'yyyy\-mm\-dd\'\)\,"/>
-    <numFmt numFmtId="170" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="173" formatCode="\'yyyy\-mm\-\'\)\,"/>
+    <numFmt numFmtId="164" formatCode="\'yyyy\-mm\-dd\'"/>
+    <numFmt numFmtId="165" formatCode="\'yyyy\-mm\-dd\'\,"/>
+    <numFmt numFmtId="166" formatCode="\'yyyy\-mm\-dd\'\)\,"/>
+    <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="168" formatCode="\'yyyy\-mm\-\'\)\,"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -609,9 +705,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,26 +714,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -689,7 +788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,9 +821,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -757,6 +873,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -932,11 +1065,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,43 +1085,43 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1006,36 +1139,36 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>42832</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>1</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>26113</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1053,31 +1186,31 @@
       <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>43068</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>1</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>26392</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
+      <c r="L3" s="1"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1095,31 +1228,31 @@
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>42792</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>27741</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+      <c r="L4" s="1"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1137,31 +1270,31 @@
       <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>43044</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>35480</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+      <c r="L5" s="1"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1179,31 +1312,31 @@
       <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>42384</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>32546</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
+      <c r="L6" s="1"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -1221,31 +1354,31 @@
       <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>42807</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>20606</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
+      <c r="L7" s="1"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -1263,31 +1396,31 @@
       <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>42956</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>28045</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="L8" s="1"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>2</v>
       </c>
       <c r="B9" t="s">
@@ -1305,31 +1438,31 @@
       <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>42622</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>32202</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
+      <c r="L9" s="1"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -1347,31 +1480,31 @@
       <c r="F10" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>42695</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>23779</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
+      <c r="L10" s="1"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>4</v>
       </c>
       <c r="B11" t="s">
@@ -1389,31 +1522,31 @@
       <c r="F11" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>43091</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>28580</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
+      <c r="L11" s="1"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
       <c r="B12" t="s">
@@ -1431,31 +1564,31 @@
       <c r="F12" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>42813</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>33598</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="L12" s="1"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>3</v>
       </c>
       <c r="B13" t="s">
@@ -1473,31 +1606,31 @@
       <c r="F13" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H13" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>42485</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>23790</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
+      <c r="L13" s="1"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>2</v>
       </c>
       <c r="B14" t="s">
@@ -1515,31 +1648,31 @@
       <c r="F14" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H14" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>42450</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>1</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>21170</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="L14" s="1"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>4</v>
       </c>
       <c r="B15" t="s">
@@ -1557,31 +1690,31 @@
       <c r="F15" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>96</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>42762</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>23664</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="L15" s="1"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>4</v>
       </c>
       <c r="B16" t="s">
@@ -1599,37 +1732,37 @@
       <c r="F16" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>102</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>43014</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>30325</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
+      <c r="L16" s="1"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
     </row>
     <row r="17" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="L17" s="2"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="L17" s="1"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
     </row>
     <row r="18" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
@@ -1664,20 +1797,20 @@
         <f>CONCATENATE("'",H2,"',")</f>
         <v>'Male',</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>42832</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
         <v>'1',</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="9">
         <v>26113</v>
       </c>
     </row>
     <row r="19" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
-        <f t="shared" ref="D19:D33" si="1">CONCATENATE("('",A3,"',")</f>
+        <f t="shared" ref="D19:D32" si="1">CONCATENATE("('",A3,"',")</f>
         <v>('4',</v>
       </c>
       <c r="E19" t="str">
@@ -1708,14 +1841,14 @@
         <f t="shared" ref="K19:K32" si="8">CONCATENATE("'",H3,"',")</f>
         <v>'Female',</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>43068</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" ref="M19:M32" si="9">CONCATENATE("'",J3,"',")</f>
         <v>'1',</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>26392</v>
       </c>
     </row>
@@ -1752,14 +1885,14 @@
         <f t="shared" si="8"/>
         <v>'Female',</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>42792</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="9"/>
         <v>'1',</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="9">
         <v>27741</v>
       </c>
     </row>
@@ -1796,14 +1929,14 @@
         <f t="shared" si="8"/>
         <v>'Female',</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>43044</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="9"/>
         <v>'1',</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <v>35480</v>
       </c>
     </row>
@@ -1840,14 +1973,14 @@
         <f t="shared" si="8"/>
         <v>'Female',</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>42384</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="9"/>
         <v>'1',</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <v>32546</v>
       </c>
     </row>
@@ -1884,14 +2017,14 @@
         <f t="shared" si="8"/>
         <v>'Female',</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>42807</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="9"/>
         <v>'1',</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="9">
         <v>20606</v>
       </c>
     </row>
@@ -1928,14 +2061,14 @@
         <f t="shared" si="8"/>
         <v>'Male',</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>42956</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="9"/>
         <v>'1',</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="9">
         <v>28045</v>
       </c>
     </row>
@@ -1972,14 +2105,14 @@
         <f t="shared" si="8"/>
         <v>'Male',</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="7">
         <v>42622</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="9"/>
         <v>'1',</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="9">
         <v>32202</v>
       </c>
     </row>
@@ -2016,14 +2149,14 @@
         <f t="shared" si="8"/>
         <v>'Female',</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>42695</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="9"/>
         <v>'0',</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="9">
         <v>23779</v>
       </c>
     </row>
@@ -2060,14 +2193,14 @@
         <f t="shared" si="8"/>
         <v>'Male',</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>43091</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="9"/>
         <v>'1',</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="9">
         <v>28580</v>
       </c>
     </row>
@@ -2104,14 +2237,14 @@
         <f t="shared" si="8"/>
         <v>'Male',</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="7">
         <v>42813</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="9"/>
         <v>'1',</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="9">
         <v>33598</v>
       </c>
     </row>
@@ -2148,14 +2281,14 @@
         <f t="shared" si="8"/>
         <v>'Female',</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="7">
         <v>42485</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="9"/>
         <v>'1',</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="9">
         <v>23790</v>
       </c>
     </row>
@@ -2192,14 +2325,14 @@
         <f t="shared" si="8"/>
         <v>'Female',</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>42450</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="9"/>
         <v>'1',</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="9">
         <v>21170</v>
       </c>
     </row>
@@ -2236,14 +2369,14 @@
         <f t="shared" si="8"/>
         <v>'Male',</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="7">
         <v>42762</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="9"/>
         <v>'1',</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="9">
         <v>23664</v>
       </c>
     </row>
@@ -2280,14 +2413,14 @@
         <f t="shared" si="8"/>
         <v>'Male',</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="7">
         <v>43014</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="9"/>
         <v>'0',</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="9">
         <v>30325</v>
       </c>
     </row>
@@ -2301,11 +2434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,75 +2451,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>11054</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10">
         <v>1</v>
       </c>
       <c r="N3" t="s">
@@ -2394,426 +2527,426 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>2458</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>2458</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11">
+      <c r="K4" s="9"/>
+      <c r="L4" s="10">
         <v>2</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>61605</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10">
         <v>3</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>73173</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10">
         <v>4</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>55146</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10">
         <v>5</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>79764</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10">
         <v>6</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>14624</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10">
         <v>7</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>32309</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>32309</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11">
+      <c r="K10" s="9"/>
+      <c r="L10" s="10">
         <v>8</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>58505</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10">
         <v>9</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>3</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>79710</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10">
         <v>10</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>84605</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10">
         <v>11</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>3</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>98424</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>98424</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11">
+      <c r="K14" s="9"/>
+      <c r="L14" s="10">
         <v>12</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>3</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>29225</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10">
         <v>13</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>3</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>22036</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10">
         <v>14</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>3</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>32520</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="L17" s="11">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="L17" s="10">
         <v>15</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K19" s="9"/>
-      <c r="N19" s="10"/>
+      <c r="K19" s="8"/>
+      <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="str">
+      <c r="B20" s="10" t="str">
         <f>CONCATENATE("('",L3,"',")</f>
         <v>('1',</v>
       </c>
@@ -2825,461 +2958,461 @@
         <f>CONCATENATE("'",B3,"',")</f>
         <v>'020 New Castle Way',</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="11" t="str">
-        <f>CONCATENATE("'",C3,"',")</f>
+      <c r="F20" s="10" t="str">
+        <f t="shared" ref="F20:F34" si="0">CONCATENATE("'",C3,"',")</f>
         <v>'Port Washington',</v>
       </c>
-      <c r="G20" s="11" t="str">
-        <f>CONCATENATE("'",D3,"',")</f>
+      <c r="G20" s="10" t="str">
+        <f t="shared" ref="G20:G34" si="1">CONCATENATE("'",D3,"',")</f>
         <v>'New York',</v>
       </c>
-      <c r="H20" s="11" t="str">
+      <c r="H20" s="10" t="str">
         <f>CONCATENATE("'",E3,"'),")</f>
         <v>'11054'),</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="N20" s="10"/>
+      <c r="K20" s="8"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="str">
-        <f t="shared" ref="B21:B34" si="0">CONCATENATE("('",L4,"',")</f>
+      <c r="B21" s="10" t="str">
+        <f>CONCATENATE("('",L4,"',")</f>
         <v>('2',</v>
       </c>
-      <c r="C21" s="11" t="str">
-        <f t="shared" ref="C21:C34" si="1">CONCATENATE("'",A4,"',")</f>
+      <c r="C21" s="10" t="str">
+        <f t="shared" ref="C21:C34" si="2">CONCATENATE("'",A4,"',")</f>
         <v>'3',</v>
       </c>
-      <c r="D21" s="11" t="str">
-        <f>CONCATENATE("'",B4,"',")</f>
+      <c r="D21" s="10" t="str">
+        <f t="shared" ref="D21:D34" si="3">CONCATENATE("'",B4,"',")</f>
         <v>'8 Corry Parkway',</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="11" t="str">
-        <f>CONCATENATE("'",C4,"',")</f>
+      <c r="F21" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Newton',</v>
       </c>
-      <c r="G21" s="11" t="str">
-        <f>CONCATENATE("'",D4,"',")</f>
+      <c r="G21" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'Massachusetts',</v>
       </c>
-      <c r="H21" s="11" t="str">
-        <f>CONCATENATE("'",E4,"'),")</f>
+      <c r="H21" s="10" t="str">
+        <f t="shared" ref="H20:H34" si="4">CONCATENATE("'",E4,"'),")</f>
         <v>'2458'),</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="N21" s="10"/>
+      <c r="K21" s="8"/>
+      <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B22" s="10" t="str">
+        <f>CONCATENATE("('",L5,"',")</f>
         <v>('3',</v>
       </c>
-      <c r="C22" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C22" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D22" s="11" t="str">
-        <f>CONCATENATE("'",B5,"',")</f>
+      <c r="D22" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'39426 Stone Corner Drive',</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="11" t="str">
-        <f>CONCATENATE("'",C5,"',")</f>
+      <c r="F22" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Peoria',</v>
       </c>
-      <c r="G22" s="11" t="str">
-        <f>CONCATENATE("'",D5,"',")</f>
+      <c r="G22" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'Illinois',</v>
       </c>
-      <c r="H22" s="11" t="str">
-        <f>CONCATENATE("'",E5,"'),")</f>
+      <c r="H22" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'61605'),</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="N22" s="10"/>
+      <c r="K22" s="8"/>
+      <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B23" s="10" t="str">
+        <f t="shared" ref="B21:B34" si="5">CONCATENATE("('",L6,"',")</f>
         <v>('4',</v>
       </c>
-      <c r="C23" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C23" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D23" s="11" t="str">
-        <f>CONCATENATE("'",B6,"',")</f>
+      <c r="D23" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'921 Granby Junction',</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="11" t="str">
-        <f>CONCATENATE("'",C6,"',")</f>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Oklahoma City',</v>
       </c>
-      <c r="G23" s="11" t="str">
-        <f>CONCATENATE("'",D6,"',")</f>
+      <c r="G23" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'Oklahoma',</v>
       </c>
-      <c r="H23" s="11" t="str">
-        <f>CONCATENATE("'",E6,"'),")</f>
+      <c r="H23" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'73173'),</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="N23" s="10"/>
+      <c r="K23" s="8"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B24" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>('5',</v>
       </c>
-      <c r="C24" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C24" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D24" s="11" t="str">
-        <f>CONCATENATE("'",B7,"',")</f>
+      <c r="D24" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'77 Butternut Parkway',</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="11" t="str">
-        <f>CONCATENATE("'",C7,"',")</f>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Saint Paul',</v>
       </c>
-      <c r="G24" s="11" t="str">
-        <f>CONCATENATE("'",D7,"',")</f>
+      <c r="G24" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'Minnesota',</v>
       </c>
-      <c r="H24" s="11" t="str">
-        <f>CONCATENATE("'",E7,"'),")</f>
+      <c r="H24" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'55146'),</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="N24" s="10"/>
+      <c r="K24" s="8"/>
+      <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B25" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>('6',</v>
       </c>
-      <c r="C25" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C25" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D25" s="11" t="str">
-        <f>CONCATENATE("'",B8,"',")</f>
+      <c r="D25" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'821 Ilene Drive',</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F25" s="11" t="str">
-        <f>CONCATENATE("'",C8,"',")</f>
+      <c r="F25" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Odessa',</v>
       </c>
-      <c r="G25" s="11" t="str">
-        <f>CONCATENATE("'",D8,"',")</f>
+      <c r="G25" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'Texas',</v>
       </c>
-      <c r="H25" s="11" t="str">
-        <f>CONCATENATE("'",E8,"'),")</f>
+      <c r="H25" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'79764'),</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="N25" s="10"/>
+      <c r="K25" s="8"/>
+      <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B26" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>('7',</v>
       </c>
-      <c r="C26" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C26" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D26" s="11" t="str">
-        <f>CONCATENATE("'",B9,"',")</f>
+      <c r="D26" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'1110 Johnson Court',</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="11" t="str">
-        <f>CONCATENATE("'",C9,"',")</f>
+      <c r="F26" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Rochester',</v>
       </c>
-      <c r="G26" s="11" t="str">
-        <f>CONCATENATE("'",D9,"',")</f>
+      <c r="G26" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'New York',</v>
       </c>
-      <c r="H26" s="11" t="str">
-        <f>CONCATENATE("'",E9,"'),")</f>
+      <c r="H26" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'14624'),</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="N26" s="10"/>
+      <c r="K26" s="8"/>
+      <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B27" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>('8',</v>
       </c>
-      <c r="C27" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C27" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D27" s="11" t="str">
-        <f>CONCATENATE("'",B10,"',")</f>
+      <c r="D27" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'6 Canary Hill',</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F27" s="11" t="str">
-        <f>CONCATENATE("'",C10,"',")</f>
+      <c r="F27" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Tallahassee',</v>
       </c>
-      <c r="G27" s="11" t="str">
-        <f>CONCATENATE("'",D10,"',")</f>
+      <c r="G27" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'Florida',</v>
       </c>
-      <c r="H27" s="11" t="str">
-        <f>CONCATENATE("'",E10,"'),")</f>
+      <c r="H27" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'32309'),</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="N27" s="10"/>
+      <c r="K27" s="8"/>
+      <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B28" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>('9',</v>
       </c>
-      <c r="C28" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C28" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D28" s="11" t="str">
-        <f>CONCATENATE("'",B11,"',")</f>
+      <c r="D28" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'9 Buhler Lane',</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="11" t="str">
-        <f>CONCATENATE("'",C11,"',")</f>
+      <c r="F28" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Bismarck',</v>
       </c>
-      <c r="G28" s="11" t="str">
-        <f>CONCATENATE("'",D11,"',")</f>
+      <c r="G28" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'North Dakota',</v>
       </c>
-      <c r="H28" s="11" t="str">
-        <f>CONCATENATE("'",E11,"'),")</f>
+      <c r="H28" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'58505'),</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="N28" s="10"/>
+      <c r="K28" s="8"/>
+      <c r="N28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B29" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>('10',</v>
       </c>
-      <c r="C29" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C29" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D29" s="11" t="str">
-        <f>CONCATENATE("'",B12,"',")</f>
+      <c r="D29" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'99 Northwestern Pass',</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="11" t="str">
-        <f>CONCATENATE("'",C12,"',")</f>
+      <c r="F29" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Midland',</v>
       </c>
-      <c r="G29" s="11" t="str">
-        <f>CONCATENATE("'",D12,"',")</f>
+      <c r="G29" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'Texas',</v>
       </c>
-      <c r="H29" s="11" t="str">
-        <f>CONCATENATE("'",E12,"'),")</f>
+      <c r="H29" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'79710'),</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="N29" s="10"/>
+      <c r="K29" s="8"/>
+      <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B30" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>('11',</v>
       </c>
-      <c r="C30" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C30" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D30" s="11" t="str">
-        <f>CONCATENATE("'",B13,"',")</f>
+      <c r="D30" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'69 Spenser Hill',</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="11" t="str">
-        <f>CONCATENATE("'",C13,"',")</f>
+      <c r="F30" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Provo',</v>
       </c>
-      <c r="G30" s="11" t="str">
-        <f>CONCATENATE("'",D13,"',")</f>
+      <c r="G30" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'Utah',</v>
       </c>
-      <c r="H30" s="11" t="str">
-        <f>CONCATENATE("'",E13,"'),")</f>
+      <c r="H30" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'84605'),</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="N30" s="10"/>
+      <c r="K30" s="8"/>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B31" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>('12',</v>
       </c>
-      <c r="C31" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C31" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D31" s="11" t="str">
-        <f>CONCATENATE("'",B14,"',")</f>
+      <c r="D31" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'3234 Kings Court',</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="11" t="str">
-        <f>CONCATENATE("'",C14,"',")</f>
+      <c r="F31" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Tacoma',</v>
       </c>
-      <c r="G31" s="11" t="str">
-        <f>CONCATENATE("'",D14,"',")</f>
+      <c r="G31" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'Washington',</v>
       </c>
-      <c r="H31" s="11" t="str">
-        <f>CONCATENATE("'",E14,"'),")</f>
+      <c r="H31" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'98424'),</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="N31" s="10"/>
+      <c r="K31" s="8"/>
+      <c r="N31" s="9"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B32" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>('13',</v>
       </c>
-      <c r="C32" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C32" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D32" s="11" t="str">
-        <f>CONCATENATE("'",B15,"',")</f>
+      <c r="D32" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'3 Lakewood Gardens Circle',</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="11" t="str">
-        <f>CONCATENATE("'",C15,"',")</f>
+      <c r="F32" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Columbia',</v>
       </c>
-      <c r="G32" s="11" t="str">
-        <f>CONCATENATE("'",D15,"',")</f>
+      <c r="G32" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'South Carolina',</v>
       </c>
-      <c r="H32" s="11" t="str">
-        <f>CONCATENATE("'",E15,"'),")</f>
+      <c r="H32" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'29225'),</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="N32" s="10"/>
+      <c r="K32" s="8"/>
+      <c r="N32" s="9"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B33" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>('14',</v>
       </c>
-      <c r="C33" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C33" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D33" s="11" t="str">
-        <f>CONCATENATE("'",B16,"',")</f>
+      <c r="D33" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'198 Muir Parkway',</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F33" s="11" t="str">
-        <f>CONCATENATE("'",C16,"',")</f>
+      <c r="F33" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Fairfax',</v>
       </c>
-      <c r="G33" s="11" t="str">
-        <f>CONCATENATE("'",D16,"',")</f>
+      <c r="G33" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'Virginia',</v>
       </c>
-      <c r="H33" s="11" t="str">
-        <f>CONCATENATE("'",E16,"'),")</f>
+      <c r="H33" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'22036'),</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="N33" s="10"/>
+      <c r="K33" s="8"/>
+      <c r="N33" s="9"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="B34" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>('15',</v>
       </c>
-      <c r="C34" s="11" t="str">
-        <f t="shared" si="1"/>
+      <c r="C34" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>'3',</v>
       </c>
-      <c r="D34" s="11" t="str">
-        <f>CONCATENATE("'",B17,"',")</f>
+      <c r="D34" s="10" t="str">
+        <f t="shared" si="3"/>
         <v>'258 Jenna Drive',</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="11" t="str">
-        <f>CONCATENATE("'",C17,"',")</f>
+      <c r="F34" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Pensacola',</v>
       </c>
-      <c r="G34" s="11" t="str">
-        <f>CONCATENATE("'",D17,"',")</f>
+      <c r="G34" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'Florida',</v>
       </c>
-      <c r="H34" s="11" t="str">
-        <f>CONCATENATE("'",E17,"'),")</f>
+      <c r="H34" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>'32520'),</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
+      <c r="B36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3291,11 +3424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="D22:G36"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,44 +3439,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>43709</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>43858</v>
       </c>
       <c r="I3">
@@ -3351,16 +3484,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>43552</v>
       </c>
       <c r="I4">
@@ -3368,16 +3501,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>43585</v>
       </c>
       <c r="I5">
@@ -3385,16 +3518,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>43302</v>
       </c>
       <c r="I6">
@@ -3402,16 +3535,16 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>43230</v>
       </c>
       <c r="I7">
@@ -3419,16 +3552,16 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>43523</v>
       </c>
       <c r="I8">
@@ -3436,16 +3569,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>43544</v>
       </c>
       <c r="I9">
@@ -3453,16 +3586,16 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>43588</v>
       </c>
       <c r="I10">
@@ -3470,16 +3603,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>43773</v>
       </c>
       <c r="I11">
@@ -3487,16 +3620,16 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>43311</v>
       </c>
       <c r="I12">
@@ -3504,16 +3637,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>43273</v>
       </c>
       <c r="I13">
@@ -3521,16 +3654,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>43754</v>
       </c>
       <c r="I14">
@@ -3538,16 +3671,16 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>43262</v>
       </c>
       <c r="I15">
@@ -3555,16 +3688,16 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>43914</v>
       </c>
       <c r="I16">
@@ -3577,382 +3710,1044 @@
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="11" t="str">
+      <c r="D22" s="10" t="str">
         <f>CONCATENATE("('",I3,"',")</f>
         <v>('1',</v>
       </c>
-      <c r="E22" s="11" t="str">
-        <f>CONCATENATE("'",B2,"',")</f>
+      <c r="E22" s="10" t="str">
+        <f t="shared" ref="E22:E36" si="0">CONCATENATE("'",B2,"',")</f>
         <v>'AmericanExpress',</v>
       </c>
-      <c r="F22" s="11" t="str">
-        <f>CONCATENATE("'",C2,"',")</f>
+      <c r="F22" s="10" t="str">
+        <f t="shared" ref="F22:F36" si="1">CONCATENATE("'",C2,"',")</f>
         <v>'337941553240515',</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>43709</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="11" t="str">
-        <f t="shared" ref="D22:D76" si="0">CONCATENATE("('",I4,"',")</f>
+      <c r="D23" s="10" t="str">
+        <f t="shared" ref="D23:D36" si="2">CONCATENATE("('",I4,"',")</f>
         <v>('2',</v>
       </c>
-      <c r="E23" s="11" t="str">
-        <f>CONCATENATE("'",B3,"',")</f>
+      <c r="E23" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Visa',</v>
       </c>
-      <c r="F23" s="11" t="str">
-        <f>CONCATENATE("'",C3,"',")</f>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'4041372553875903',</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>43858</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D24" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('3',</v>
       </c>
-      <c r="E24" s="11" t="str">
-        <f>CONCATENATE("'",B4,"',")</f>
+      <c r="E24" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Visa',</v>
       </c>
-      <c r="F24" s="11" t="str">
-        <f>CONCATENATE("'",C4,"',")</f>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'4041593962566',</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <v>43552</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D25" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('4',</v>
       </c>
-      <c r="E25" s="11" t="str">
-        <f>CONCATENATE("'",B5,"',")</f>
+      <c r="E25" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'JCB',</v>
       </c>
-      <c r="F25" s="11" t="str">
-        <f>CONCATENATE("'",C5,"',")</f>
+      <c r="F25" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'3559478087149594',</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <v>43585</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D26" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('5',</v>
       </c>
-      <c r="E26" s="11" t="str">
-        <f>CONCATENATE("'",B6,"',")</f>
+      <c r="E26" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'JCB',</v>
       </c>
-      <c r="F26" s="11" t="str">
-        <f>CONCATENATE("'",C6,"',")</f>
+      <c r="F26" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'3571066026049076',</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <v>43302</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D27" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('6',</v>
       </c>
-      <c r="E27" s="11" t="str">
-        <f>CONCATENATE("'",B7,"',")</f>
+      <c r="E27" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Diners-Club-Carte-Blanche',</v>
       </c>
-      <c r="F27" s="11" t="str">
-        <f>CONCATENATE("'",C7,"',")</f>
+      <c r="F27" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'30423652701879',</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>43230</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D28" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('7',</v>
       </c>
-      <c r="E28" s="11" t="str">
-        <f>CONCATENATE("'",B8,"',")</f>
+      <c r="E28" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'JCB',</v>
       </c>
-      <c r="F28" s="11" t="str">
-        <f>CONCATENATE("'",C8,"',")</f>
+      <c r="F28" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'3532950215393858',</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <v>43523</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D29" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('8',</v>
       </c>
-      <c r="E29" s="11" t="str">
-        <f>CONCATENATE("'",B9,"',")</f>
+      <c r="E29" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'JCB',</v>
       </c>
-      <c r="F29" s="11" t="str">
-        <f>CONCATENATE("'",C9,"',")</f>
+      <c r="F29" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'3569709859937370',</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <v>43544</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D30" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('9',</v>
       </c>
-      <c r="E30" s="11" t="str">
-        <f>CONCATENATE("'",B10,"',")</f>
+      <c r="E30" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'JCB',</v>
       </c>
-      <c r="F30" s="11" t="str">
-        <f>CONCATENATE("'",C10,"',")</f>
+      <c r="F30" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'3529188090740670',</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <v>43588</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D31" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('10',</v>
       </c>
-      <c r="E31" s="11" t="str">
-        <f>CONCATENATE("'",B11,"',")</f>
+      <c r="E31" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'JCB',</v>
       </c>
-      <c r="F31" s="11" t="str">
-        <f>CONCATENATE("'",C11,"',")</f>
+      <c r="F31" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'3530142576111598',</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <v>43773</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D32" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('11',</v>
       </c>
-      <c r="E32" s="11" t="str">
-        <f>CONCATENATE("'",B12,"',")</f>
+      <c r="E32" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'MasterCard',</v>
       </c>
-      <c r="F32" s="11" t="str">
-        <f>CONCATENATE("'",C12,"',")</f>
+      <c r="F32" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'5108756299877313',</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <v>43311</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D33" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('12',</v>
       </c>
-      <c r="E33" s="11" t="str">
-        <f>CONCATENATE("'",B13,"',")</f>
+      <c r="E33" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'JCB',</v>
       </c>
-      <c r="F33" s="11" t="str">
-        <f>CONCATENATE("'",C13,"',")</f>
+      <c r="F33" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'3543168150106220',</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <v>43273</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D34" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('13',</v>
       </c>
-      <c r="E34" s="11" t="str">
-        <f>CONCATENATE("'",B14,"',")</f>
+      <c r="E34" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'JCB',</v>
       </c>
-      <c r="F34" s="11" t="str">
-        <f>CONCATENATE("'",C14,"',")</f>
+      <c r="F34" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'3559166521684728',</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <v>43754</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D35" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('14',</v>
       </c>
-      <c r="E35" s="11" t="str">
-        <f>CONCATENATE("'",B15,"',")</f>
+      <c r="E35" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'Diners-Club-Carte-Blanche',</v>
       </c>
-      <c r="F35" s="11" t="str">
-        <f>CONCATENATE("'",C15,"',")</f>
+      <c r="F35" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'30414677064054',</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <v>43262</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D36" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>('15',</v>
       </c>
-      <c r="E36" s="11" t="str">
-        <f>CONCATENATE("'",B16,"',")</f>
+      <c r="E36" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>'JCB',</v>
       </c>
-      <c r="F36" s="11" t="str">
-        <f>CONCATENATE("'",C16,"',")</f>
+      <c r="F36" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>'3542828093985763',</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <v>43914</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="11"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="11"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="11"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="11"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="11"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D42" s="11"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D43" s="11"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D44" s="11"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="11"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="11"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D47" s="11"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D48" s="11"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="11"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="11"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="11"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="11"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="11"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="11"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="11"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="11"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="11"/>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="11"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="11"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="11"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="11"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="11"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="11"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="11"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="11"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="11"/>
+      <c r="D66" s="10"/>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="11"/>
+      <c r="D67" s="10"/>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="11"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="11"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="11"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="11"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="11"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="11"/>
+      <c r="D73" s="10"/>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="11"/>
+      <c r="D74" s="10"/>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="11"/>
+      <c r="D75" s="10"/>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="11"/>
+      <c r="D76" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDF1883-1A20-410F-9D1F-523F93671DB9}">
+  <dimension ref="A2:K66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:H65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="5"/>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="5"/>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="10"/>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="10"/>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="10"/>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="10"/>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="10"/>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="10"/>
+      <c r="H26">
+        <v>11</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="10"/>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="10"/>
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="10"/>
+      <c r="H29">
+        <v>13</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="10"/>
+      <c r="H30">
+        <v>14</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="10"/>
+      <c r="H31">
+        <v>14</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="10"/>
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="10"/>
+      <c r="H33">
+        <v>15</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35" t="str">
+        <f>CONCATENATE("('",H3,"',")</f>
+        <v>('1',</v>
+      </c>
+      <c r="H35" t="str">
+        <f>CONCATENATE("'",I3,"'),")</f>
+        <v>'Acting'),</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="10" t="str">
+        <f t="shared" ref="G36:G66" si="0">CONCATENATE("('",H4,"',")</f>
+        <v>('1',</v>
+      </c>
+      <c r="H36" s="10" t="str">
+        <f t="shared" ref="H36:H65" si="1">CONCATENATE("'",I4,"'),")</f>
+        <v>'Video Games'),</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('1',</v>
+      </c>
+      <c r="H37" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Crossword Puzzles'),</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('2',</v>
+      </c>
+      <c r="H38" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Calligraphy'),</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('3',</v>
+      </c>
+      <c r="H39" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Movies'),</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('3',</v>
+      </c>
+      <c r="H40" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Restaurants'),</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('3',</v>
+      </c>
+      <c r="H41" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Woodworking'),</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('4',</v>
+      </c>
+      <c r="H42" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Juggling'),</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('4',</v>
+      </c>
+      <c r="H43" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Quilting'),</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('5',</v>
+      </c>
+      <c r="H44" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Electronics'),</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('6',</v>
+      </c>
+      <c r="H45" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Sewing'),</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('6',</v>
+      </c>
+      <c r="H46" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cooking'),</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('6',</v>
+      </c>
+      <c r="H47" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Movies'),</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="10" t="str">
+        <f>CONCATENATE("('",H16,"',")</f>
+        <v>('7',</v>
+      </c>
+      <c r="H48" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Botany'),</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('7',</v>
+      </c>
+      <c r="H49" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Skating'),</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('8',</v>
+      </c>
+      <c r="H50" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Dancing'),</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('8',</v>
+      </c>
+      <c r="H51" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Coffee'),</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('8',</v>
+      </c>
+      <c r="H52" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Foreign Languages'),</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="10" t="str">
+        <f>CONCATENATE("('",H21,"',")</f>
+        <v>('9',</v>
+      </c>
+      <c r="H53" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Fashion'),</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('10',</v>
+      </c>
+      <c r="H54" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Woodworking'),</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('11',</v>
+      </c>
+      <c r="H55" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Homebrewing'),</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('11',</v>
+      </c>
+      <c r="H56" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Geneology'),</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('11',</v>
+      </c>
+      <c r="H57" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Movies'),</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('11',</v>
+      </c>
+      <c r="H58" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Scrapbooking'),</v>
+      </c>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('12',</v>
+      </c>
+      <c r="H59" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Surfing'),</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="10" t="str">
+        <f>CONCATENATE("('",H28,"',")</f>
+        <v>('12',</v>
+      </c>
+      <c r="H60" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Amateur Radio'),</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('13',</v>
+      </c>
+      <c r="H61" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Computers'),</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('14',</v>
+      </c>
+      <c r="H62" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Writing'),</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('14',</v>
+      </c>
+      <c r="H63" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Singing'),</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="10" t="str">
+        <f>CONCATENATE("('",H32,"',")</f>
+        <v>('15',</v>
+      </c>
+      <c r="H64" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Reading'),</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('15',</v>
+      </c>
+      <c r="H65" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Pottery'),</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,20 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
     <sheet name="MemberAddresses" sheetId="4" r:id="rId2"/>
     <sheet name="PaymentCard" sheetId="5" r:id="rId3"/>
     <sheet name="MemberInterest" sheetId="6" r:id="rId4"/>
+    <sheet name="Host" sheetId="7" r:id="rId5"/>
+    <sheet name="Events" sheetId="8" r:id="rId6"/>
+    <sheet name="Transactions" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="266">
   <si>
     <t>RenewalID</t>
   </si>
@@ -652,6 +655,174 @@
   </si>
   <si>
     <t>Scrapbooking</t>
+  </si>
+  <si>
+    <t>Tiffany</t>
+  </si>
+  <si>
+    <t>Watt</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Sinek</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Comeau</t>
+  </si>
+  <si>
+    <t>tiffanywatt2@gmail.com</t>
+  </si>
+  <si>
+    <t>simon2@gmail.com</t>
+  </si>
+  <si>
+    <t>dan2@gmail.com</t>
+  </si>
+  <si>
+    <t>elizabeth2@gmail.com</t>
+  </si>
+  <si>
+    <t>andrew2@gmail.com</t>
+  </si>
+  <si>
+    <t>352-123-4567</t>
+  </si>
+  <si>
+    <t>352-542-1234</t>
+  </si>
+  <si>
+    <t>352-929-0101</t>
+  </si>
+  <si>
+    <t>352-112-1212</t>
+  </si>
+  <si>
+    <t>352-313-3142</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>2016-01-01',</t>
+  </si>
+  <si>
+    <t>EventName</t>
+  </si>
+  <si>
+    <t>EventDate</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>EDescription</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>History of human emotions</t>
+  </si>
+  <si>
+    <t>How great leaders inspire action</t>
+  </si>
+  <si>
+    <t>Motivational</t>
+  </si>
+  <si>
+    <t>Learn to become a genius!</t>
+  </si>
+  <si>
+    <t>Overview of how smart programmers are</t>
+  </si>
+  <si>
+    <t>This will be fun</t>
+  </si>
+  <si>
+    <t>Helpful class and inspiration</t>
+  </si>
+  <si>
+    <t>Motivate people</t>
+  </si>
+  <si>
+    <t>Thinking Skills</t>
+  </si>
+  <si>
+    <t>Programmers are awesome</t>
+  </si>
+  <si>
+    <t>12:00',</t>
+  </si>
+  <si>
+    <t>2:00',</t>
+  </si>
+  <si>
+    <t>1:00',</t>
+  </si>
+  <si>
+    <t>3:00',</t>
+  </si>
+  <si>
+    <t>2:30'</t>
+  </si>
+  <si>
+    <t>The History of Human Emotions</t>
+  </si>
+  <si>
+    <t>How Great Leaders Inspire Action</t>
+  </si>
+  <si>
+    <t>The Puzzle of Motivation</t>
+  </si>
+  <si>
+    <t>Your Elusive Creative Genius</t>
+  </si>
+  <si>
+    <t>Why are Programmers So Smart?</t>
+  </si>
+  <si>
+    <t>Trans. Date</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Declined</t>
+  </si>
+  <si>
+    <t>Invalid Card</t>
+  </si>
+  <si>
+    <t>CardID</t>
   </si>
 </sst>
 </file>
@@ -665,7 +836,7 @@
     <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="168" formatCode="\'yyyy\-mm\-\'\)\,"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +848,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -696,11 +875,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,8 +907,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -1115,10 +1314,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
@@ -2451,19 +2650,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
@@ -3001,7 +3200,7 @@
         <v>'Massachusetts',</v>
       </c>
       <c r="H21" s="10" t="str">
-        <f t="shared" ref="H20:H34" si="4">CONCATENATE("'",E4,"'),")</f>
+        <f t="shared" ref="H21:H34" si="4">CONCATENATE("'",E4,"'),")</f>
         <v>'2458'),</v>
       </c>
       <c r="K21" s="8"/>
@@ -3040,7 +3239,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="str">
-        <f t="shared" ref="B21:B34" si="5">CONCATENATE("('",L6,"',")</f>
+        <f t="shared" ref="B23:B34" si="5">CONCATENATE("('",L6,"',")</f>
         <v>('4',</v>
       </c>
       <c r="C23" s="10" t="str">
@@ -3427,8 +3626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4094,8 +4293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDF1883-1A20-410F-9D1F-523F93671DB9}">
   <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:H65"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4446,7 +4645,7 @@
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G36" s="10" t="str">
-        <f t="shared" ref="G36:G66" si="0">CONCATENATE("('",H4,"',")</f>
+        <f t="shared" ref="G36:G65" si="0">CONCATENATE("('",H4,"',")</f>
         <v>('1',</v>
       </c>
       <c r="H36" s="10" t="str">
@@ -4566,8 +4765,8 @@
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G48" s="10" t="str">
-        <f>CONCATENATE("('",H16,"',")</f>
-        <v>('7',</v>
+        <f>CONCATENATE("('",C2,"',")</f>
+        <v>('',</v>
       </c>
       <c r="H48" s="10" t="str">
         <f t="shared" si="1"/>
@@ -4750,4 +4949,3374 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A01356-B018-4776-870D-EA2127B9A9A3}">
+  <dimension ref="F2:Q15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9">
+        <v>27132</v>
+      </c>
+    </row>
+    <row r="4" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9">
+        <v>30662</v>
+      </c>
+    </row>
+    <row r="5" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="M5" s="15">
+        <v>1</v>
+      </c>
+      <c r="N5" s="20">
+        <v>32542</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9">
+        <v>23559</v>
+      </c>
+    </row>
+    <row r="7" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>33493</v>
+      </c>
+    </row>
+    <row r="11" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f>CONCATENATE("('",F3,"',")</f>
+        <v>('Tiffany',</v>
+      </c>
+      <c r="G11" t="str">
+        <f>CONCATENATE("'",G3,"',")</f>
+        <v>'Watt',</v>
+      </c>
+      <c r="H11" t="str">
+        <f>CONCATENATE("'",H3,"',")</f>
+        <v>'Smith',</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f>CONCATENATE("'",G2,"',")</f>
+        <v>'MiddleName',</v>
+      </c>
+      <c r="J11" s="10" t="str">
+        <f t="shared" ref="I11:M11" si="0">CONCATENATE("'",J3,"',")</f>
+        <v>'352-123-4567',</v>
+      </c>
+      <c r="K11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Female',</v>
+      </c>
+      <c r="L11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'2016-01-01',',</v>
+      </c>
+      <c r="M11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>'1',</v>
+      </c>
+      <c r="N11" s="9">
+        <v>27132</v>
+      </c>
+    </row>
+    <row r="12" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F12" s="10" t="str">
+        <f t="shared" ref="F12:F15" si="1">CONCATENATE("('",F4,"',")</f>
+        <v>('Simon',</v>
+      </c>
+      <c r="G12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="10" t="str">
+        <f t="shared" ref="H12:M15" si="2">CONCATENATE("'",H4,"',")</f>
+        <v>'Sinek',</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'simon2@gmail.com',</v>
+      </c>
+      <c r="J12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'352-542-1234',</v>
+      </c>
+      <c r="K12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Male',</v>
+      </c>
+      <c r="L12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'2016-01-01',',</v>
+      </c>
+      <c r="M12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'1',</v>
+      </c>
+      <c r="N12" s="9">
+        <v>30662</v>
+      </c>
+    </row>
+    <row r="13" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F13" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>('Dan',</v>
+      </c>
+      <c r="G13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Pink',</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'dan2@gmail.com',</v>
+      </c>
+      <c r="J13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'352-929-0101',</v>
+      </c>
+      <c r="K13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Male',</v>
+      </c>
+      <c r="L13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'2016-01-01',',</v>
+      </c>
+      <c r="M13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'1',</v>
+      </c>
+      <c r="N13" s="20">
+        <v>32542</v>
+      </c>
+    </row>
+    <row r="14" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>('Elizabeth',</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Gilbert',</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'elizabeth2@gmail.com',</v>
+      </c>
+      <c r="J14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'352-112-1212',</v>
+      </c>
+      <c r="K14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Female',</v>
+      </c>
+      <c r="L14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'2016-01-01',',</v>
+      </c>
+      <c r="M14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'1',</v>
+      </c>
+      <c r="N14" s="9">
+        <v>23559</v>
+      </c>
+    </row>
+    <row r="15" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>('Andrew',</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Comeau',</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'andrew2@gmail.com',</v>
+      </c>
+      <c r="J15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'352-313-3142',</v>
+      </c>
+      <c r="K15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Male',</v>
+      </c>
+      <c r="L15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'2016-01-01',',</v>
+      </c>
+      <c r="M15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'1',</v>
+      </c>
+      <c r="N15" s="9">
+        <v>33493</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{E4ACC3B8-3AA9-4373-A2F3-E7F8D8481155}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{1F626837-A51C-4F96-A2B5-9620B9A4E22B}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{0BE494FD-8458-4F53-8A41-E1FED42500D1}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{322028BB-74F6-405E-973E-54698A135941}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{856889C7-B395-43CD-ADBB-790E16CCC120}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE72728-371E-4336-8270-3E240900DFC0}">
+  <dimension ref="B1:I12"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="22">
+        <v>42747</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="22">
+        <v>42788</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="22">
+        <v>42799</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="22">
+        <v>42841</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="22">
+        <v>42856</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f>CONCATENATE("('",B2,"',")</f>
+        <v>('1',</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE("'",C2,"',")</f>
+        <v>'The History of Human Emotions',</v>
+      </c>
+      <c r="E8" s="22">
+        <v>42747</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" t="str">
+        <f>CONCATENATE("'",G2,"',")</f>
+        <v>'History of human emotions',</v>
+      </c>
+      <c r="I8" t="str">
+        <f>CONCATENATE("'",H2,"'),")</f>
+        <v>'This will be fun'),</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="str">
+        <f t="shared" ref="C9:C12" si="0">CONCATENATE("('",B3,"',")</f>
+        <v>('2',</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f t="shared" ref="D9:D12" si="1">CONCATENATE("'",C3,"',")</f>
+        <v>'How Great Leaders Inspire Action',</v>
+      </c>
+      <c r="E9" s="22">
+        <v>42788</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="10" t="str">
+        <f>CONCATENATE("'",G3,"',")</f>
+        <v>'How great leaders inspire action',</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f>CONCATENATE("'",H3,"'),")</f>
+        <v>'Helpful class and inspiration'),</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('3',</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'The Puzzle of Motivation',</v>
+      </c>
+      <c r="E10" s="22">
+        <v>42799</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f>CONCATENATE("'",G4,"',")</f>
+        <v>'Motivational',</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f>CONCATENATE("'",H4,"'),")</f>
+        <v>'Motivate people'),</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('4',</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Your Elusive Creative Genius',</v>
+      </c>
+      <c r="E11" s="22">
+        <v>42841</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="10" t="str">
+        <f>CONCATENATE("'",G5,"',")</f>
+        <v>'Learn to become a genius!',</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f>CONCATENATE("'",H5,"'),")</f>
+        <v>'Thinking Skills'),</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('5',</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>'Why are Programmers So Smart?',</v>
+      </c>
+      <c r="E12" s="22">
+        <v>42856</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="10" t="str">
+        <f>CONCATENATE("'",G6,"',")</f>
+        <v>'Overview of how smart programmers are',</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f>CONCATENATE("'",H6,"'),")</f>
+        <v>'Programmers are awesome'),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C05DAF-75BC-48FD-ABD8-9807210DC701}">
+  <dimension ref="A1:I94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I93" sqref="F2:I93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>105</v>
+      </c>
+      <c r="B2" s="8">
+        <v>42384</v>
+      </c>
+      <c r="C2" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE("('",A2,"',")</f>
+        <v>('105',</v>
+      </c>
+      <c r="G2" s="8">
+        <v>42384</v>
+      </c>
+      <c r="H2" s="25" t="str">
+        <f>CONCATENATE("'",C2,"',")</f>
+        <v>'9.99',</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE("'",D2,"'),")</f>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>105</v>
+      </c>
+      <c r="B3" s="8">
+        <v>42385</v>
+      </c>
+      <c r="C3" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f t="shared" ref="F3:F66" si="0">CONCATENATE("('",A3,"',")</f>
+        <v>('105',</v>
+      </c>
+      <c r="G3" s="8">
+        <v>42385</v>
+      </c>
+      <c r="H3" s="25" t="str">
+        <f t="shared" ref="H3:H66" si="1">CONCATENATE("'",C3,"',")</f>
+        <v>'9.99',</v>
+      </c>
+      <c r="I3" s="10" t="str">
+        <f t="shared" ref="I3:I66" si="2">CONCATENATE("'",D3,"'),")</f>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>105</v>
+      </c>
+      <c r="B4" s="8">
+        <v>42386</v>
+      </c>
+      <c r="C4" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G4" s="8">
+        <v>42386</v>
+      </c>
+      <c r="H4" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I4" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>113</v>
+      </c>
+      <c r="B5" s="8">
+        <v>42387</v>
+      </c>
+      <c r="C5" s="24">
+        <v>99</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('113',</v>
+      </c>
+      <c r="G5" s="8">
+        <v>42387</v>
+      </c>
+      <c r="H5" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'99',</v>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>105</v>
+      </c>
+      <c r="B6" s="8">
+        <v>42388</v>
+      </c>
+      <c r="C6" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G6" s="8">
+        <v>42388</v>
+      </c>
+      <c r="H6" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>113</v>
+      </c>
+      <c r="B7" s="8">
+        <v>42389</v>
+      </c>
+      <c r="C7" s="24">
+        <v>99</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('113',</v>
+      </c>
+      <c r="G7" s="8">
+        <v>42389</v>
+      </c>
+      <c r="H7" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'99',</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>112</v>
+      </c>
+      <c r="B8" s="8">
+        <v>42390</v>
+      </c>
+      <c r="C8" s="24">
+        <v>27</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('112',</v>
+      </c>
+      <c r="G8" s="8">
+        <v>42390</v>
+      </c>
+      <c r="H8" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'27',</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>105</v>
+      </c>
+      <c r="B9" s="8">
+        <v>42391</v>
+      </c>
+      <c r="C9" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G9" s="8">
+        <v>42391</v>
+      </c>
+      <c r="H9" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>105</v>
+      </c>
+      <c r="B10" s="8">
+        <v>42392</v>
+      </c>
+      <c r="C10" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G10" s="8">
+        <v>42392</v>
+      </c>
+      <c r="H10" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>105</v>
+      </c>
+      <c r="B11" s="8">
+        <v>42393</v>
+      </c>
+      <c r="C11" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G11" s="8">
+        <v>42393</v>
+      </c>
+      <c r="H11" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>112</v>
+      </c>
+      <c r="B12" s="8">
+        <v>42394</v>
+      </c>
+      <c r="C12" s="24">
+        <v>27</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('112',</v>
+      </c>
+      <c r="G12" s="8">
+        <v>42394</v>
+      </c>
+      <c r="H12" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'27',</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>105</v>
+      </c>
+      <c r="B13" s="8">
+        <v>42395</v>
+      </c>
+      <c r="C13" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G13" s="8">
+        <v>42395</v>
+      </c>
+      <c r="H13" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>108</v>
+      </c>
+      <c r="B14" s="8">
+        <v>42396</v>
+      </c>
+      <c r="C14" s="24">
+        <v>99</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('108',</v>
+      </c>
+      <c r="G14" s="8">
+        <v>42396</v>
+      </c>
+      <c r="H14" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'99',</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>105</v>
+      </c>
+      <c r="B15" s="8">
+        <v>42397</v>
+      </c>
+      <c r="C15" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G15" s="8">
+        <v>42397</v>
+      </c>
+      <c r="H15" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>105</v>
+      </c>
+      <c r="B16" s="8">
+        <v>42398</v>
+      </c>
+      <c r="C16" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G16" s="8">
+        <v>42398</v>
+      </c>
+      <c r="H16" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>112</v>
+      </c>
+      <c r="B17" s="8">
+        <v>42399</v>
+      </c>
+      <c r="C17" s="24">
+        <v>27</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('112',</v>
+      </c>
+      <c r="G17" s="8">
+        <v>42399</v>
+      </c>
+      <c r="H17" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'27',</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>105</v>
+      </c>
+      <c r="B18" s="8">
+        <v>42400</v>
+      </c>
+      <c r="C18" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G18" s="8">
+        <v>42400</v>
+      </c>
+      <c r="H18" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>109</v>
+      </c>
+      <c r="B19" s="8">
+        <v>42401</v>
+      </c>
+      <c r="C19" s="24">
+        <v>99</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('109',</v>
+      </c>
+      <c r="G19" s="8">
+        <v>42401</v>
+      </c>
+      <c r="H19" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'99',</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>105</v>
+      </c>
+      <c r="B20" s="8">
+        <v>42402</v>
+      </c>
+      <c r="C20" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G20" s="8">
+        <v>42402</v>
+      </c>
+      <c r="H20" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>105</v>
+      </c>
+      <c r="B21" s="8">
+        <v>42403</v>
+      </c>
+      <c r="C21" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G21" s="8">
+        <v>42403</v>
+      </c>
+      <c r="H21" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>112</v>
+      </c>
+      <c r="B22" s="8">
+        <v>42404</v>
+      </c>
+      <c r="C22" s="24">
+        <v>27</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('112',</v>
+      </c>
+      <c r="G22" s="8">
+        <v>42404</v>
+      </c>
+      <c r="H22" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'27',</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>114</v>
+      </c>
+      <c r="B23" s="8">
+        <v>42405</v>
+      </c>
+      <c r="C23" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('114',</v>
+      </c>
+      <c r="G23" s="8">
+        <v>42405</v>
+      </c>
+      <c r="H23" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>105</v>
+      </c>
+      <c r="B24" s="8">
+        <v>42406</v>
+      </c>
+      <c r="C24" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G24" s="8">
+        <v>42406</v>
+      </c>
+      <c r="H24" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>103</v>
+      </c>
+      <c r="B25" s="8">
+        <v>42407</v>
+      </c>
+      <c r="C25" s="24">
+        <v>27</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('103',</v>
+      </c>
+      <c r="G25" s="8">
+        <v>42407</v>
+      </c>
+      <c r="H25" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'27',</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>114</v>
+      </c>
+      <c r="B26" s="8">
+        <v>42408</v>
+      </c>
+      <c r="C26" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('114',</v>
+      </c>
+      <c r="G26" s="8">
+        <v>42408</v>
+      </c>
+      <c r="H26" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>106</v>
+      </c>
+      <c r="B27" s="8">
+        <v>42409</v>
+      </c>
+      <c r="C27" s="24">
+        <v>99</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('106',</v>
+      </c>
+      <c r="G27" s="8">
+        <v>42409</v>
+      </c>
+      <c r="H27" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'99',</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>105</v>
+      </c>
+      <c r="B28" s="8">
+        <v>42410</v>
+      </c>
+      <c r="C28" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G28" s="8">
+        <v>42410</v>
+      </c>
+      <c r="H28" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>111</v>
+      </c>
+      <c r="B29" s="8">
+        <v>42411</v>
+      </c>
+      <c r="C29" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('111',</v>
+      </c>
+      <c r="G29" s="8">
+        <v>42411</v>
+      </c>
+      <c r="H29" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>114</v>
+      </c>
+      <c r="B30" s="8">
+        <v>42412</v>
+      </c>
+      <c r="C30" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('114',</v>
+      </c>
+      <c r="G30" s="8">
+        <v>42412</v>
+      </c>
+      <c r="H30" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>101</v>
+      </c>
+      <c r="B31" s="8">
+        <v>42413</v>
+      </c>
+      <c r="C31" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('101',</v>
+      </c>
+      <c r="G31" s="8">
+        <v>42413</v>
+      </c>
+      <c r="H31" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>105</v>
+      </c>
+      <c r="B32" s="8">
+        <v>42414</v>
+      </c>
+      <c r="C32" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G32" s="8">
+        <v>42414</v>
+      </c>
+      <c r="H32" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>111</v>
+      </c>
+      <c r="B33" s="8">
+        <v>42415</v>
+      </c>
+      <c r="C33" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('111',</v>
+      </c>
+      <c r="G33" s="8">
+        <v>42415</v>
+      </c>
+      <c r="H33" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>112</v>
+      </c>
+      <c r="B34" s="8">
+        <v>42416</v>
+      </c>
+      <c r="C34" s="24">
+        <v>27</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('112',</v>
+      </c>
+      <c r="G34" s="8">
+        <v>42416</v>
+      </c>
+      <c r="H34" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'27',</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>114</v>
+      </c>
+      <c r="B35" s="8">
+        <v>42417</v>
+      </c>
+      <c r="C35" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('114',</v>
+      </c>
+      <c r="G35" s="8">
+        <v>42417</v>
+      </c>
+      <c r="H35" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>101</v>
+      </c>
+      <c r="B36" s="8">
+        <v>42418</v>
+      </c>
+      <c r="C36" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('101',</v>
+      </c>
+      <c r="G36" s="8">
+        <v>42418</v>
+      </c>
+      <c r="H36" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>105</v>
+      </c>
+      <c r="B37" s="8">
+        <v>42419</v>
+      </c>
+      <c r="C37" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G37" s="8">
+        <v>42419</v>
+      </c>
+      <c r="H37" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I37" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>111</v>
+      </c>
+      <c r="B38" s="8">
+        <v>42420</v>
+      </c>
+      <c r="C38" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('111',</v>
+      </c>
+      <c r="G38" s="8">
+        <v>42420</v>
+      </c>
+      <c r="H38" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I38" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>103</v>
+      </c>
+      <c r="B39" s="8">
+        <v>42421</v>
+      </c>
+      <c r="C39" s="24">
+        <v>27</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('103',</v>
+      </c>
+      <c r="G39" s="8">
+        <v>42421</v>
+      </c>
+      <c r="H39" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'27',</v>
+      </c>
+      <c r="I39" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>114</v>
+      </c>
+      <c r="B40" s="8">
+        <v>42422</v>
+      </c>
+      <c r="C40" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('114',</v>
+      </c>
+      <c r="G40" s="8">
+        <v>42422</v>
+      </c>
+      <c r="H40" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I40" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>101</v>
+      </c>
+      <c r="B41" s="8">
+        <v>42423</v>
+      </c>
+      <c r="C41" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('101',</v>
+      </c>
+      <c r="G41" s="8">
+        <v>42423</v>
+      </c>
+      <c r="H41" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I41" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Declined'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>101</v>
+      </c>
+      <c r="B42" s="8">
+        <v>42424</v>
+      </c>
+      <c r="C42" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('101',</v>
+      </c>
+      <c r="G42" s="8">
+        <v>42424</v>
+      </c>
+      <c r="H42" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I42" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>105</v>
+      </c>
+      <c r="B43" s="8">
+        <v>42425</v>
+      </c>
+      <c r="C43" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G43" s="8">
+        <v>42425</v>
+      </c>
+      <c r="H43" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I43" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>111</v>
+      </c>
+      <c r="B44" s="8">
+        <v>42426</v>
+      </c>
+      <c r="C44" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('111',</v>
+      </c>
+      <c r="G44" s="8">
+        <v>42426</v>
+      </c>
+      <c r="H44" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I44" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>114</v>
+      </c>
+      <c r="B45" s="8">
+        <v>42427</v>
+      </c>
+      <c r="C45" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F45" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('114',</v>
+      </c>
+      <c r="G45" s="8">
+        <v>42427</v>
+      </c>
+      <c r="H45" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I45" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>101</v>
+      </c>
+      <c r="B46" s="8">
+        <v>42428</v>
+      </c>
+      <c r="C46" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('101',</v>
+      </c>
+      <c r="G46" s="8">
+        <v>42428</v>
+      </c>
+      <c r="H46" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I46" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>105</v>
+      </c>
+      <c r="B47" s="8">
+        <v>42429</v>
+      </c>
+      <c r="C47" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G47" s="8">
+        <v>42429</v>
+      </c>
+      <c r="H47" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I47" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>111</v>
+      </c>
+      <c r="B48" s="8">
+        <v>42430</v>
+      </c>
+      <c r="C48" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F48" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('111',</v>
+      </c>
+      <c r="G48" s="8">
+        <v>42430</v>
+      </c>
+      <c r="H48" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I48" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Declined'),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>111</v>
+      </c>
+      <c r="B49" s="8">
+        <v>42431</v>
+      </c>
+      <c r="C49" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F49" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('111',</v>
+      </c>
+      <c r="G49" s="8">
+        <v>42431</v>
+      </c>
+      <c r="H49" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I49" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>112</v>
+      </c>
+      <c r="B50" s="8">
+        <v>42432</v>
+      </c>
+      <c r="C50" s="24">
+        <v>27</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F50" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('112',</v>
+      </c>
+      <c r="G50" s="8">
+        <v>42432</v>
+      </c>
+      <c r="H50" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'27',</v>
+      </c>
+      <c r="I50" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>114</v>
+      </c>
+      <c r="B51" s="8">
+        <v>42433</v>
+      </c>
+      <c r="C51" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F51" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('114',</v>
+      </c>
+      <c r="G51" s="8">
+        <v>42433</v>
+      </c>
+      <c r="H51" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I51" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>101</v>
+      </c>
+      <c r="B52" s="8">
+        <v>42434</v>
+      </c>
+      <c r="C52" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F52" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('101',</v>
+      </c>
+      <c r="G52" s="8">
+        <v>42434</v>
+      </c>
+      <c r="H52" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I52" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>107</v>
+      </c>
+      <c r="B53" s="8">
+        <v>42435</v>
+      </c>
+      <c r="C53" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F53" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('107',</v>
+      </c>
+      <c r="G53" s="8">
+        <v>42435</v>
+      </c>
+      <c r="H53" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I53" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>105</v>
+      </c>
+      <c r="B54" s="8">
+        <v>42436</v>
+      </c>
+      <c r="C54" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G54" s="8">
+        <v>42436</v>
+      </c>
+      <c r="H54" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I54" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>111</v>
+      </c>
+      <c r="B55" s="8">
+        <v>42437</v>
+      </c>
+      <c r="C55" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F55" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('111',</v>
+      </c>
+      <c r="G55" s="8">
+        <v>42437</v>
+      </c>
+      <c r="H55" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I55" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>103</v>
+      </c>
+      <c r="B56" s="8">
+        <v>42438</v>
+      </c>
+      <c r="C56" s="24">
+        <v>27</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F56" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('103',</v>
+      </c>
+      <c r="G56" s="8">
+        <v>42438</v>
+      </c>
+      <c r="H56" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'27',</v>
+      </c>
+      <c r="I56" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>114</v>
+      </c>
+      <c r="B57" s="8">
+        <v>42439</v>
+      </c>
+      <c r="C57" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F57" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('114',</v>
+      </c>
+      <c r="G57" s="8">
+        <v>42439</v>
+      </c>
+      <c r="H57" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I57" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>101</v>
+      </c>
+      <c r="B58" s="8">
+        <v>42440</v>
+      </c>
+      <c r="C58" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F58" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('101',</v>
+      </c>
+      <c r="G58" s="8">
+        <v>42440</v>
+      </c>
+      <c r="H58" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I58" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>107</v>
+      </c>
+      <c r="B59" s="8">
+        <v>42441</v>
+      </c>
+      <c r="C59" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F59" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('107',</v>
+      </c>
+      <c r="G59" s="8">
+        <v>42441</v>
+      </c>
+      <c r="H59" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I59" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>108</v>
+      </c>
+      <c r="B60" s="8">
+        <v>42442</v>
+      </c>
+      <c r="C60" s="24">
+        <v>99</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F60" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('108',</v>
+      </c>
+      <c r="G60" s="8">
+        <v>42442</v>
+      </c>
+      <c r="H60" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'99',</v>
+      </c>
+      <c r="I60" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>105</v>
+      </c>
+      <c r="B61" s="8">
+        <v>42443</v>
+      </c>
+      <c r="C61" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F61" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('105',</v>
+      </c>
+      <c r="G61" s="8">
+        <v>42443</v>
+      </c>
+      <c r="H61" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I61" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>111</v>
+      </c>
+      <c r="B62" s="8">
+        <v>42444</v>
+      </c>
+      <c r="C62" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F62" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('111',</v>
+      </c>
+      <c r="G62" s="8">
+        <v>42444</v>
+      </c>
+      <c r="H62" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I62" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>114</v>
+      </c>
+      <c r="B63" s="8">
+        <v>42445</v>
+      </c>
+      <c r="C63" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F63" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('114',</v>
+      </c>
+      <c r="G63" s="8">
+        <v>42445</v>
+      </c>
+      <c r="H63" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I63" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>115</v>
+      </c>
+      <c r="B64" s="8">
+        <v>42446</v>
+      </c>
+      <c r="C64" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F64" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('115',</v>
+      </c>
+      <c r="G64" s="8">
+        <v>42446</v>
+      </c>
+      <c r="H64" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I64" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Invalid Card'),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>101</v>
+      </c>
+      <c r="B65" s="8">
+        <v>42447</v>
+      </c>
+      <c r="C65" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F65" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('101',</v>
+      </c>
+      <c r="G65" s="8">
+        <v>42447</v>
+      </c>
+      <c r="H65" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I65" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>107</v>
+      </c>
+      <c r="B66" s="8">
+        <v>42448</v>
+      </c>
+      <c r="C66" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F66" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>('107',</v>
+      </c>
+      <c r="G66" s="8">
+        <v>42448</v>
+      </c>
+      <c r="H66" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I66" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>105</v>
+      </c>
+      <c r="B67" s="8">
+        <v>42449</v>
+      </c>
+      <c r="C67" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F67" s="10" t="str">
+        <f t="shared" ref="F67:F93" si="3">CONCATENATE("('",A67,"',")</f>
+        <v>('105',</v>
+      </c>
+      <c r="G67" s="8">
+        <v>42449</v>
+      </c>
+      <c r="H67" s="25" t="str">
+        <f t="shared" ref="H67:H93" si="4">CONCATENATE("'",C67,"',")</f>
+        <v>'9.99',</v>
+      </c>
+      <c r="I67" s="10" t="str">
+        <f t="shared" ref="I67:I93" si="5">CONCATENATE("'",D67,"'),")</f>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>111</v>
+      </c>
+      <c r="B68" s="8">
+        <v>42450</v>
+      </c>
+      <c r="C68" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F68" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('111',</v>
+      </c>
+      <c r="G68" s="8">
+        <v>42450</v>
+      </c>
+      <c r="H68" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I68" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>112</v>
+      </c>
+      <c r="B69" s="8">
+        <v>42451</v>
+      </c>
+      <c r="C69" s="24">
+        <v>27</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F69" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('112',</v>
+      </c>
+      <c r="G69" s="8">
+        <v>42451</v>
+      </c>
+      <c r="H69" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'27',</v>
+      </c>
+      <c r="I69" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>114</v>
+      </c>
+      <c r="B70" s="8">
+        <v>42452</v>
+      </c>
+      <c r="C70" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F70" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('114',</v>
+      </c>
+      <c r="G70" s="8">
+        <v>42452</v>
+      </c>
+      <c r="H70" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I70" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>104</v>
+      </c>
+      <c r="B71" s="8">
+        <v>42453</v>
+      </c>
+      <c r="C71" s="24">
+        <v>27</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F71" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('104',</v>
+      </c>
+      <c r="G71" s="8">
+        <v>42453</v>
+      </c>
+      <c r="H71" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'27',</v>
+      </c>
+      <c r="I71" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>101</v>
+      </c>
+      <c r="B72" s="8">
+        <v>42454</v>
+      </c>
+      <c r="C72" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F72" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('101',</v>
+      </c>
+      <c r="G72" s="8">
+        <v>42454</v>
+      </c>
+      <c r="H72" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I72" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>107</v>
+      </c>
+      <c r="B73" s="8">
+        <v>42455</v>
+      </c>
+      <c r="C73" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F73" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('107',</v>
+      </c>
+      <c r="G73" s="8">
+        <v>42455</v>
+      </c>
+      <c r="H73" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I73" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>105</v>
+      </c>
+      <c r="B74" s="8">
+        <v>42456</v>
+      </c>
+      <c r="C74" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F74" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('105',</v>
+      </c>
+      <c r="G74" s="8">
+        <v>42456</v>
+      </c>
+      <c r="H74" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I74" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>111</v>
+      </c>
+      <c r="B75" s="8">
+        <v>42457</v>
+      </c>
+      <c r="C75" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F75" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('111',</v>
+      </c>
+      <c r="G75" s="8">
+        <v>42457</v>
+      </c>
+      <c r="H75" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I75" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>103</v>
+      </c>
+      <c r="B76" s="8">
+        <v>42458</v>
+      </c>
+      <c r="C76" s="24">
+        <v>27</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F76" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('103',</v>
+      </c>
+      <c r="G76" s="8">
+        <v>42458</v>
+      </c>
+      <c r="H76" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'27',</v>
+      </c>
+      <c r="I76" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Declined'),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>103</v>
+      </c>
+      <c r="B77" s="8">
+        <v>42459</v>
+      </c>
+      <c r="C77" s="24">
+        <v>27</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F77" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('103',</v>
+      </c>
+      <c r="G77" s="8">
+        <v>42459</v>
+      </c>
+      <c r="H77" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'27',</v>
+      </c>
+      <c r="I77" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>114</v>
+      </c>
+      <c r="B78" s="8">
+        <v>42460</v>
+      </c>
+      <c r="C78" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('114',</v>
+      </c>
+      <c r="G78" s="8">
+        <v>42460</v>
+      </c>
+      <c r="H78" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I78" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>102</v>
+      </c>
+      <c r="B79" s="8">
+        <v>42461</v>
+      </c>
+      <c r="C79" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F79" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('102',</v>
+      </c>
+      <c r="G79" s="8">
+        <v>42461</v>
+      </c>
+      <c r="H79" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I79" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>101</v>
+      </c>
+      <c r="B80" s="8">
+        <v>42462</v>
+      </c>
+      <c r="C80" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F80" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('101',</v>
+      </c>
+      <c r="G80" s="8">
+        <v>42462</v>
+      </c>
+      <c r="H80" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I80" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>107</v>
+      </c>
+      <c r="B81" s="8">
+        <v>42463</v>
+      </c>
+      <c r="C81" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F81" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('107',</v>
+      </c>
+      <c r="G81" s="8">
+        <v>42463</v>
+      </c>
+      <c r="H81" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I81" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>105</v>
+      </c>
+      <c r="B82" s="8">
+        <v>42464</v>
+      </c>
+      <c r="C82" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('105',</v>
+      </c>
+      <c r="G82" s="8">
+        <v>42464</v>
+      </c>
+      <c r="H82" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I82" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>111</v>
+      </c>
+      <c r="B83" s="8">
+        <v>42465</v>
+      </c>
+      <c r="C83" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F83" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('111',</v>
+      </c>
+      <c r="G83" s="8">
+        <v>42465</v>
+      </c>
+      <c r="H83" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I83" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>110</v>
+      </c>
+      <c r="B84" s="8">
+        <v>42466</v>
+      </c>
+      <c r="C84" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F84" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('110',</v>
+      </c>
+      <c r="G84" s="8">
+        <v>42466</v>
+      </c>
+      <c r="H84" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I84" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>114</v>
+      </c>
+      <c r="B85" s="8">
+        <v>42467</v>
+      </c>
+      <c r="C85" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F85" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('114',</v>
+      </c>
+      <c r="G85" s="8">
+        <v>42467</v>
+      </c>
+      <c r="H85" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I85" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>102</v>
+      </c>
+      <c r="B86" s="8">
+        <v>42468</v>
+      </c>
+      <c r="C86" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F86" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('102',</v>
+      </c>
+      <c r="G86" s="8">
+        <v>42468</v>
+      </c>
+      <c r="H86" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I86" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>101</v>
+      </c>
+      <c r="B87" s="8">
+        <v>42469</v>
+      </c>
+      <c r="C87" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F87" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('101',</v>
+      </c>
+      <c r="G87" s="8">
+        <v>42469</v>
+      </c>
+      <c r="H87" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I87" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>107</v>
+      </c>
+      <c r="B88" s="8">
+        <v>42470</v>
+      </c>
+      <c r="C88" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F88" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('107',</v>
+      </c>
+      <c r="G88" s="8">
+        <v>42470</v>
+      </c>
+      <c r="H88" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I88" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>105</v>
+      </c>
+      <c r="B89" s="8">
+        <v>42471</v>
+      </c>
+      <c r="C89" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F89" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('105',</v>
+      </c>
+      <c r="G89" s="8">
+        <v>42471</v>
+      </c>
+      <c r="H89" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I89" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>111</v>
+      </c>
+      <c r="B90" s="8">
+        <v>42472</v>
+      </c>
+      <c r="C90" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F90" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('111',</v>
+      </c>
+      <c r="G90" s="8">
+        <v>42472</v>
+      </c>
+      <c r="H90" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I90" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>110</v>
+      </c>
+      <c r="B91" s="8">
+        <v>42473</v>
+      </c>
+      <c r="C91" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F91" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('110',</v>
+      </c>
+      <c r="G91" s="8">
+        <v>42473</v>
+      </c>
+      <c r="H91" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I91" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>112</v>
+      </c>
+      <c r="B92" s="8">
+        <v>42474</v>
+      </c>
+      <c r="C92" s="24">
+        <v>27</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F92" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('112',</v>
+      </c>
+      <c r="G92" s="8">
+        <v>42474</v>
+      </c>
+      <c r="H92" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'27',</v>
+      </c>
+      <c r="I92" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>114</v>
+      </c>
+      <c r="B93" s="8">
+        <v>42475</v>
+      </c>
+      <c r="C93" s="24">
+        <v>9.99</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F93" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>('114',</v>
+      </c>
+      <c r="G93" s="8">
+        <v>42475</v>
+      </c>
+      <c r="H93" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>'9.99',</v>
+      </c>
+      <c r="I93" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>'Approved'),</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H94" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\DataModel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -828,7 +823,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="\'yyyy\-mm\-dd\'"/>
     <numFmt numFmtId="165" formatCode="\'yyyy\-mm\-dd\'\,"/>
@@ -907,9 +902,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -925,11 +917,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,7 +982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,26 +1015,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1072,23 +1050,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1264,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1314,10 +1275,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
@@ -2633,7 +2594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2650,19 +2611,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
@@ -3623,7 +3584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
@@ -4290,7 +4251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDF1883-1A20-410F-9D1F-523F93671DB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K66"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
@@ -4952,7 +4913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A01356-B018-4776-870D-EA2127B9A9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F2:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5003,7 +4964,7 @@
       <c r="H3" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>221</v>
       </c>
       <c r="J3" t="s">
@@ -5012,7 +4973,7 @@
       <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>232</v>
       </c>
       <c r="M3" s="10">
@@ -5029,7 +4990,7 @@
       <c r="H4" t="s">
         <v>214</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>222</v>
       </c>
       <c r="J4" t="s">
@@ -5038,7 +4999,7 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>232</v>
       </c>
       <c r="M4">
@@ -5055,7 +5016,7 @@
       <c r="H5" t="s">
         <v>216</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>223</v>
       </c>
       <c r="J5" t="s">
@@ -5064,13 +5025,13 @@
       <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>232</v>
       </c>
       <c r="M5" s="15">
         <v>1</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="19">
         <v>32542</v>
       </c>
       <c r="O5" s="15"/>
@@ -5084,7 +5045,7 @@
       <c r="H6" t="s">
         <v>218</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>224</v>
       </c>
       <c r="J6" t="s">
@@ -5093,7 +5054,7 @@
       <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="18" t="s">
         <v>232</v>
       </c>
       <c r="M6">
@@ -5110,7 +5071,7 @@
       <c r="H7" t="s">
         <v>220</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>225</v>
       </c>
       <c r="J7" t="s">
@@ -5119,7 +5080,7 @@
       <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="18" t="s">
         <v>232</v>
       </c>
       <c r="M7">
@@ -5147,7 +5108,7 @@
         <v>'MiddleName',</v>
       </c>
       <c r="J11" s="10" t="str">
-        <f t="shared" ref="I11:M11" si="0">CONCATENATE("'",J3,"',")</f>
+        <f t="shared" ref="J11:M11" si="0">CONCATENATE("'",J3,"',")</f>
         <v>'352-123-4567',</v>
       </c>
       <c r="K11" s="10" t="str">
@@ -5234,7 +5195,7 @@
         <f t="shared" si="2"/>
         <v>'1',</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="19">
         <v>32542</v>
       </c>
     </row>
@@ -5312,18 +5273,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{E4ACC3B8-3AA9-4373-A2F3-E7F8D8481155}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{1F626837-A51C-4F96-A2B5-9620B9A4E22B}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{0BE494FD-8458-4F53-8A41-E1FED42500D1}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{322028BB-74F6-405E-973E-54698A135941}"/>
-    <hyperlink ref="I7" r:id="rId5" xr:uid="{856889C7-B395-43CD-ADBB-790E16CCC120}"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="I5" r:id="rId3"/>
+    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink ref="I7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE72728-371E-4336-8270-3E240900DFC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -5369,13 +5330,13 @@
       <c r="C2" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>42747</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>0.5</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G2" t="s">
@@ -5392,13 +5353,13 @@
       <c r="C3" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>42788</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>0.5</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G3" t="s">
@@ -5415,13 +5376,13 @@
       <c r="C4" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>42799</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>0.5</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>0.125</v>
       </c>
       <c r="G4" t="s">
@@ -5438,13 +5399,13 @@
       <c r="C5" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>42841</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>0.5</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G5" t="s">
@@ -5461,13 +5422,13 @@
       <c r="C6" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>42856</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>0.5</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>0.10416666666666667</v>
       </c>
       <c r="G6" t="s">
@@ -5486,13 +5447,13 @@
         <f>CONCATENATE("'",C2,"',")</f>
         <v>'The History of Human Emotions',</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>42747</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>250</v>
       </c>
       <c r="H8" t="str">
@@ -5513,13 +5474,13 @@
         <f t="shared" ref="D9:D12" si="1">CONCATENATE("'",C3,"',")</f>
         <v>'How Great Leaders Inspire Action',</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>42788</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>251</v>
       </c>
       <c r="H9" s="10" t="str">
@@ -5540,13 +5501,13 @@
         <f t="shared" si="1"/>
         <v>'The Puzzle of Motivation',</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>42799</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>252</v>
       </c>
       <c r="H10" s="10" t="str">
@@ -5567,13 +5528,13 @@
         <f t="shared" si="1"/>
         <v>'Your Elusive Creative Genius',</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>42841</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>250</v>
       </c>
       <c r="H11" s="10" t="str">
@@ -5594,13 +5555,13 @@
         <f t="shared" si="1"/>
         <v>'Why are Programmers So Smart?',</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>42856</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>253</v>
       </c>
       <c r="H12" s="10" t="str">
@@ -5618,11 +5579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C05DAF-75BC-48FD-ABD8-9807210DC701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I93" sqref="F2:I93"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5649,10 +5610,8 @@
       <c r="A2" s="10">
         <v>105</v>
       </c>
-      <c r="B2" s="8">
-        <v>42384</v>
-      </c>
-      <c r="C2" s="24">
+      <c r="B2" s="8"/>
+      <c r="C2" s="23">
         <v>9.99</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -5665,7 +5624,7 @@
       <c r="G2" s="8">
         <v>42384</v>
       </c>
-      <c r="H2" s="25" t="str">
+      <c r="H2" s="24" t="str">
         <f>CONCATENATE("'",C2,"',")</f>
         <v>'9.99',</v>
       </c>
@@ -5678,10 +5637,8 @@
       <c r="A3" s="10">
         <v>105</v>
       </c>
-      <c r="B3" s="8">
-        <v>42385</v>
-      </c>
-      <c r="C3" s="24">
+      <c r="B3" s="8"/>
+      <c r="C3" s="23">
         <v>9.99</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -5692,9 +5649,9 @@
         <v>('105',</v>
       </c>
       <c r="G3" s="8">
-        <v>42385</v>
-      </c>
-      <c r="H3" s="25" t="str">
+        <v>42415</v>
+      </c>
+      <c r="H3" s="24" t="str">
         <f t="shared" ref="H3:H66" si="1">CONCATENATE("'",C3,"',")</f>
         <v>'9.99',</v>
       </c>
@@ -5707,10 +5664,8 @@
       <c r="A4" s="10">
         <v>105</v>
       </c>
-      <c r="B4" s="8">
-        <v>42386</v>
-      </c>
-      <c r="C4" s="24">
+      <c r="B4" s="8"/>
+      <c r="C4" s="23">
         <v>9.99</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -5721,9 +5676,9 @@
         <v>('105',</v>
       </c>
       <c r="G4" s="8">
-        <v>42386</v>
-      </c>
-      <c r="H4" s="25" t="str">
+        <v>42444</v>
+      </c>
+      <c r="H4" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -5736,10 +5691,8 @@
       <c r="A5" s="10">
         <v>113</v>
       </c>
-      <c r="B5" s="8">
-        <v>42387</v>
-      </c>
-      <c r="C5" s="24">
+      <c r="B5" s="8"/>
+      <c r="C5" s="23">
         <v>99</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -5750,9 +5703,9 @@
         <v>('113',</v>
       </c>
       <c r="G5" s="8">
-        <v>42387</v>
-      </c>
-      <c r="H5" s="25" t="str">
+        <v>42450</v>
+      </c>
+      <c r="H5" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'99',</v>
       </c>
@@ -5765,10 +5718,8 @@
       <c r="A6" s="10">
         <v>105</v>
       </c>
-      <c r="B6" s="8">
-        <v>42388</v>
-      </c>
-      <c r="C6" s="24">
+      <c r="B6" s="8"/>
+      <c r="C6" s="23">
         <v>9.99</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -5779,9 +5730,9 @@
         <v>('105',</v>
       </c>
       <c r="G6" s="8">
-        <v>42388</v>
-      </c>
-      <c r="H6" s="25" t="str">
+        <v>42475</v>
+      </c>
+      <c r="H6" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -5794,10 +5745,8 @@
       <c r="A7" s="10">
         <v>113</v>
       </c>
-      <c r="B7" s="8">
-        <v>42389</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="B7" s="8"/>
+      <c r="C7" s="23">
         <v>99</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -5808,9 +5757,9 @@
         <v>('113',</v>
       </c>
       <c r="G7" s="8">
-        <v>42389</v>
-      </c>
-      <c r="H7" s="25" t="str">
+        <v>42481</v>
+      </c>
+      <c r="H7" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'99',</v>
       </c>
@@ -5823,10 +5772,8 @@
       <c r="A8" s="10">
         <v>112</v>
       </c>
-      <c r="B8" s="8">
-        <v>42390</v>
-      </c>
-      <c r="C8" s="24">
+      <c r="B8" s="8"/>
+      <c r="C8" s="23">
         <v>27</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -5837,9 +5784,9 @@
         <v>('112',</v>
       </c>
       <c r="G8" s="8">
-        <v>42390</v>
-      </c>
-      <c r="H8" s="25" t="str">
+        <v>42485</v>
+      </c>
+      <c r="H8" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'27',</v>
       </c>
@@ -5852,10 +5799,8 @@
       <c r="A9" s="10">
         <v>105</v>
       </c>
-      <c r="B9" s="8">
-        <v>42391</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="8"/>
+      <c r="C9" s="23">
         <v>9.99</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -5866,9 +5811,9 @@
         <v>('105',</v>
       </c>
       <c r="G9" s="8">
-        <v>42391</v>
-      </c>
-      <c r="H9" s="25" t="str">
+        <v>42505</v>
+      </c>
+      <c r="H9" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -5881,10 +5826,8 @@
       <c r="A10" s="10">
         <v>105</v>
       </c>
-      <c r="B10" s="8">
-        <v>42392</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="B10" s="8"/>
+      <c r="C10" s="23">
         <v>9.99</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -5895,9 +5838,9 @@
         <v>('105',</v>
       </c>
       <c r="G10" s="8">
-        <v>42392</v>
-      </c>
-      <c r="H10" s="25" t="str">
+        <v>42536</v>
+      </c>
+      <c r="H10" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -5910,10 +5853,8 @@
       <c r="A11" s="10">
         <v>105</v>
       </c>
-      <c r="B11" s="8">
-        <v>42393</v>
-      </c>
-      <c r="C11" s="24">
+      <c r="B11" s="8"/>
+      <c r="C11" s="23">
         <v>9.99</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -5924,9 +5865,9 @@
         <v>('105',</v>
       </c>
       <c r="G11" s="8">
-        <v>42393</v>
-      </c>
-      <c r="H11" s="25" t="str">
+        <v>42566</v>
+      </c>
+      <c r="H11" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -5939,10 +5880,8 @@
       <c r="A12" s="10">
         <v>112</v>
       </c>
-      <c r="B12" s="8">
-        <v>42394</v>
-      </c>
-      <c r="C12" s="24">
+      <c r="B12" s="8"/>
+      <c r="C12" s="23">
         <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -5953,9 +5892,9 @@
         <v>('112',</v>
       </c>
       <c r="G12" s="8">
-        <v>42394</v>
-      </c>
-      <c r="H12" s="25" t="str">
+        <v>42576</v>
+      </c>
+      <c r="H12" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'27',</v>
       </c>
@@ -5968,10 +5907,8 @@
       <c r="A13" s="10">
         <v>105</v>
       </c>
-      <c r="B13" s="8">
-        <v>42395</v>
-      </c>
-      <c r="C13" s="24">
+      <c r="B13" s="8"/>
+      <c r="C13" s="23">
         <v>9.99</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -5982,9 +5919,9 @@
         <v>('105',</v>
       </c>
       <c r="G13" s="8">
-        <v>42395</v>
-      </c>
-      <c r="H13" s="25" t="str">
+        <v>42597</v>
+      </c>
+      <c r="H13" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -5997,10 +5934,8 @@
       <c r="A14" s="10">
         <v>108</v>
       </c>
-      <c r="B14" s="8">
-        <v>42396</v>
-      </c>
-      <c r="C14" s="24">
+      <c r="B14" s="8"/>
+      <c r="C14" s="23">
         <v>99</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -6011,9 +5946,9 @@
         <v>('108',</v>
       </c>
       <c r="G14" s="8">
-        <v>42396</v>
-      </c>
-      <c r="H14" s="25" t="str">
+        <v>42622</v>
+      </c>
+      <c r="H14" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'99',</v>
       </c>
@@ -6026,10 +5961,8 @@
       <c r="A15" s="10">
         <v>105</v>
       </c>
-      <c r="B15" s="8">
-        <v>42397</v>
-      </c>
-      <c r="C15" s="24">
+      <c r="B15" s="8"/>
+      <c r="C15" s="23">
         <v>9.99</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -6040,9 +5973,9 @@
         <v>('105',</v>
       </c>
       <c r="G15" s="8">
-        <v>42397</v>
-      </c>
-      <c r="H15" s="25" t="str">
+        <v>42628</v>
+      </c>
+      <c r="H15" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6055,10 +5988,8 @@
       <c r="A16" s="10">
         <v>105</v>
       </c>
-      <c r="B16" s="8">
-        <v>42398</v>
-      </c>
-      <c r="C16" s="24">
+      <c r="B16" s="8"/>
+      <c r="C16" s="23">
         <v>9.99</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -6069,9 +6000,9 @@
         <v>('105',</v>
       </c>
       <c r="G16" s="8">
-        <v>42398</v>
-      </c>
-      <c r="H16" s="25" t="str">
+        <v>42658</v>
+      </c>
+      <c r="H16" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6084,10 +6015,8 @@
       <c r="A17" s="10">
         <v>112</v>
       </c>
-      <c r="B17" s="8">
-        <v>42399</v>
-      </c>
-      <c r="C17" s="24">
+      <c r="B17" s="8"/>
+      <c r="C17" s="23">
         <v>27</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -6098,9 +6027,9 @@
         <v>('112',</v>
       </c>
       <c r="G17" s="8">
-        <v>42399</v>
-      </c>
-      <c r="H17" s="25" t="str">
+        <v>42668</v>
+      </c>
+      <c r="H17" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'27',</v>
       </c>
@@ -6113,10 +6042,8 @@
       <c r="A18" s="10">
         <v>105</v>
       </c>
-      <c r="B18" s="8">
-        <v>42400</v>
-      </c>
-      <c r="C18" s="24">
+      <c r="B18" s="8"/>
+      <c r="C18" s="23">
         <v>9.99</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -6127,9 +6054,9 @@
         <v>('105',</v>
       </c>
       <c r="G18" s="8">
-        <v>42400</v>
-      </c>
-      <c r="H18" s="25" t="str">
+        <v>42689</v>
+      </c>
+      <c r="H18" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6142,10 +6069,8 @@
       <c r="A19" s="10">
         <v>109</v>
       </c>
-      <c r="B19" s="8">
-        <v>42401</v>
-      </c>
-      <c r="C19" s="24">
+      <c r="B19" s="8"/>
+      <c r="C19" s="23">
         <v>99</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -6156,9 +6081,9 @@
         <v>('109',</v>
       </c>
       <c r="G19" s="8">
-        <v>42401</v>
-      </c>
-      <c r="H19" s="25" t="str">
+        <v>42695</v>
+      </c>
+      <c r="H19" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'99',</v>
       </c>
@@ -6171,10 +6096,8 @@
       <c r="A20" s="10">
         <v>105</v>
       </c>
-      <c r="B20" s="8">
-        <v>42402</v>
-      </c>
-      <c r="C20" s="24">
+      <c r="B20" s="8"/>
+      <c r="C20" s="23">
         <v>9.99</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -6185,9 +6108,9 @@
         <v>('105',</v>
       </c>
       <c r="G20" s="8">
-        <v>42402</v>
-      </c>
-      <c r="H20" s="25" t="str">
+        <v>42719</v>
+      </c>
+      <c r="H20" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6200,10 +6123,8 @@
       <c r="A21" s="10">
         <v>105</v>
       </c>
-      <c r="B21" s="8">
-        <v>42403</v>
-      </c>
-      <c r="C21" s="24">
+      <c r="B21" s="8"/>
+      <c r="C21" s="23">
         <v>9.99</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -6214,9 +6135,9 @@
         <v>('105',</v>
       </c>
       <c r="G21" s="8">
-        <v>42403</v>
-      </c>
-      <c r="H21" s="25" t="str">
+        <v>42750</v>
+      </c>
+      <c r="H21" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6229,10 +6150,8 @@
       <c r="A22" s="10">
         <v>112</v>
       </c>
-      <c r="B22" s="8">
-        <v>42404</v>
-      </c>
-      <c r="C22" s="24">
+      <c r="B22" s="8"/>
+      <c r="C22" s="23">
         <v>27</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -6243,9 +6162,9 @@
         <v>('112',</v>
       </c>
       <c r="G22" s="8">
-        <v>42404</v>
-      </c>
-      <c r="H22" s="25" t="str">
+        <v>42760</v>
+      </c>
+      <c r="H22" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'27',</v>
       </c>
@@ -6258,10 +6177,8 @@
       <c r="A23" s="10">
         <v>114</v>
       </c>
-      <c r="B23" s="8">
-        <v>42405</v>
-      </c>
-      <c r="C23" s="24">
+      <c r="B23" s="8"/>
+      <c r="C23" s="23">
         <v>9.99</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -6272,9 +6189,9 @@
         <v>('114',</v>
       </c>
       <c r="G23" s="8">
-        <v>42405</v>
-      </c>
-      <c r="H23" s="25" t="str">
+        <v>42762</v>
+      </c>
+      <c r="H23" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6287,10 +6204,8 @@
       <c r="A24" s="10">
         <v>105</v>
       </c>
-      <c r="B24" s="8">
-        <v>42406</v>
-      </c>
-      <c r="C24" s="24">
+      <c r="B24" s="8"/>
+      <c r="C24" s="23">
         <v>9.99</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -6301,9 +6216,9 @@
         <v>('105',</v>
       </c>
       <c r="G24" s="8">
-        <v>42406</v>
-      </c>
-      <c r="H24" s="25" t="str">
+        <v>42781</v>
+      </c>
+      <c r="H24" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6316,10 +6231,8 @@
       <c r="A25" s="10">
         <v>103</v>
       </c>
-      <c r="B25" s="8">
-        <v>42407</v>
-      </c>
-      <c r="C25" s="24">
+      <c r="B25" s="8"/>
+      <c r="C25" s="23">
         <v>27</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -6330,9 +6243,9 @@
         <v>('103',</v>
       </c>
       <c r="G25" s="8">
-        <v>42407</v>
-      </c>
-      <c r="H25" s="25" t="str">
+        <v>42792</v>
+      </c>
+      <c r="H25" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'27',</v>
       </c>
@@ -6345,10 +6258,8 @@
       <c r="A26" s="10">
         <v>114</v>
       </c>
-      <c r="B26" s="8">
-        <v>42408</v>
-      </c>
-      <c r="C26" s="24">
+      <c r="B26" s="8"/>
+      <c r="C26" s="23">
         <v>9.99</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -6359,9 +6270,9 @@
         <v>('114',</v>
       </c>
       <c r="G26" s="8">
-        <v>42408</v>
-      </c>
-      <c r="H26" s="25" t="str">
+        <v>42793</v>
+      </c>
+      <c r="H26" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6374,10 +6285,8 @@
       <c r="A27" s="10">
         <v>106</v>
       </c>
-      <c r="B27" s="8">
-        <v>42409</v>
-      </c>
-      <c r="C27" s="24">
+      <c r="B27" s="8"/>
+      <c r="C27" s="23">
         <v>99</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -6388,9 +6297,9 @@
         <v>('106',</v>
       </c>
       <c r="G27" s="8">
-        <v>42409</v>
-      </c>
-      <c r="H27" s="25" t="str">
+        <v>42807</v>
+      </c>
+      <c r="H27" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'99',</v>
       </c>
@@ -6403,10 +6312,8 @@
       <c r="A28" s="10">
         <v>105</v>
       </c>
-      <c r="B28" s="8">
-        <v>42410</v>
-      </c>
-      <c r="C28" s="24">
+      <c r="B28" s="8"/>
+      <c r="C28" s="23">
         <v>9.99</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -6417,9 +6324,9 @@
         <v>('105',</v>
       </c>
       <c r="G28" s="8">
-        <v>42410</v>
-      </c>
-      <c r="H28" s="25" t="str">
+        <v>42809</v>
+      </c>
+      <c r="H28" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6432,10 +6339,8 @@
       <c r="A29" s="10">
         <v>111</v>
       </c>
-      <c r="B29" s="8">
-        <v>42411</v>
-      </c>
-      <c r="C29" s="24">
+      <c r="B29" s="8"/>
+      <c r="C29" s="23">
         <v>9.99</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -6446,9 +6351,9 @@
         <v>('111',</v>
       </c>
       <c r="G29" s="8">
-        <v>42411</v>
-      </c>
-      <c r="H29" s="25" t="str">
+        <v>42813</v>
+      </c>
+      <c r="H29" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6461,10 +6366,8 @@
       <c r="A30" s="10">
         <v>114</v>
       </c>
-      <c r="B30" s="8">
-        <v>42412</v>
-      </c>
-      <c r="C30" s="24">
+      <c r="B30" s="8"/>
+      <c r="C30" s="23">
         <v>9.99</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -6475,9 +6378,9 @@
         <v>('114',</v>
       </c>
       <c r="G30" s="8">
-        <v>42412</v>
-      </c>
-      <c r="H30" s="25" t="str">
+        <v>42821</v>
+      </c>
+      <c r="H30" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6490,10 +6393,8 @@
       <c r="A31" s="10">
         <v>101</v>
       </c>
-      <c r="B31" s="8">
-        <v>42413</v>
-      </c>
-      <c r="C31" s="24">
+      <c r="B31" s="8"/>
+      <c r="C31" s="23">
         <v>9.99</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -6504,9 +6405,9 @@
         <v>('101',</v>
       </c>
       <c r="G31" s="8">
-        <v>42413</v>
-      </c>
-      <c r="H31" s="25" t="str">
+        <v>42832</v>
+      </c>
+      <c r="H31" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6519,10 +6420,8 @@
       <c r="A32" s="10">
         <v>105</v>
       </c>
-      <c r="B32" s="8">
-        <v>42414</v>
-      </c>
-      <c r="C32" s="24">
+      <c r="B32" s="8"/>
+      <c r="C32" s="23">
         <v>9.99</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -6533,9 +6432,9 @@
         <v>('105',</v>
       </c>
       <c r="G32" s="8">
-        <v>42414</v>
-      </c>
-      <c r="H32" s="25" t="str">
+        <v>42840</v>
+      </c>
+      <c r="H32" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6548,10 +6447,8 @@
       <c r="A33" s="10">
         <v>111</v>
       </c>
-      <c r="B33" s="8">
-        <v>42415</v>
-      </c>
-      <c r="C33" s="24">
+      <c r="B33" s="8"/>
+      <c r="C33" s="23">
         <v>9.99</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -6562,9 +6459,9 @@
         <v>('111',</v>
       </c>
       <c r="G33" s="8">
-        <v>42415</v>
-      </c>
-      <c r="H33" s="25" t="str">
+        <v>42844</v>
+      </c>
+      <c r="H33" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6577,10 +6474,8 @@
       <c r="A34" s="10">
         <v>112</v>
       </c>
-      <c r="B34" s="8">
-        <v>42416</v>
-      </c>
-      <c r="C34" s="24">
+      <c r="B34" s="8"/>
+      <c r="C34" s="23">
         <v>27</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -6591,9 +6486,9 @@
         <v>('112',</v>
       </c>
       <c r="G34" s="8">
-        <v>42416</v>
-      </c>
-      <c r="H34" s="25" t="str">
+        <v>42850</v>
+      </c>
+      <c r="H34" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'27',</v>
       </c>
@@ -6606,10 +6501,8 @@
       <c r="A35" s="10">
         <v>114</v>
       </c>
-      <c r="B35" s="8">
-        <v>42417</v>
-      </c>
-      <c r="C35" s="24">
+      <c r="B35" s="8"/>
+      <c r="C35" s="23">
         <v>9.99</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -6620,9 +6513,9 @@
         <v>('114',</v>
       </c>
       <c r="G35" s="8">
-        <v>42417</v>
-      </c>
-      <c r="H35" s="25" t="str">
+        <v>42852</v>
+      </c>
+      <c r="H35" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6635,10 +6528,8 @@
       <c r="A36" s="10">
         <v>101</v>
       </c>
-      <c r="B36" s="8">
-        <v>42418</v>
-      </c>
-      <c r="C36" s="24">
+      <c r="B36" s="8"/>
+      <c r="C36" s="23">
         <v>9.99</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -6649,9 +6540,9 @@
         <v>('101',</v>
       </c>
       <c r="G36" s="8">
-        <v>42418</v>
-      </c>
-      <c r="H36" s="25" t="str">
+        <v>42862</v>
+      </c>
+      <c r="H36" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6664,10 +6555,8 @@
       <c r="A37" s="10">
         <v>105</v>
       </c>
-      <c r="B37" s="8">
-        <v>42419</v>
-      </c>
-      <c r="C37" s="24">
+      <c r="B37" s="8"/>
+      <c r="C37" s="23">
         <v>9.99</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -6678,9 +6567,9 @@
         <v>('105',</v>
       </c>
       <c r="G37" s="8">
-        <v>42419</v>
-      </c>
-      <c r="H37" s="25" t="str">
+        <v>42870</v>
+      </c>
+      <c r="H37" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6693,10 +6582,8 @@
       <c r="A38" s="10">
         <v>111</v>
       </c>
-      <c r="B38" s="8">
-        <v>42420</v>
-      </c>
-      <c r="C38" s="24">
+      <c r="B38" s="8"/>
+      <c r="C38" s="23">
         <v>9.99</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -6707,9 +6594,9 @@
         <v>('111',</v>
       </c>
       <c r="G38" s="8">
-        <v>42420</v>
-      </c>
-      <c r="H38" s="25" t="str">
+        <v>42874</v>
+      </c>
+      <c r="H38" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6722,10 +6609,8 @@
       <c r="A39" s="10">
         <v>103</v>
       </c>
-      <c r="B39" s="8">
-        <v>42421</v>
-      </c>
-      <c r="C39" s="24">
+      <c r="B39" s="8"/>
+      <c r="C39" s="23">
         <v>27</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -6736,9 +6621,9 @@
         <v>('103',</v>
       </c>
       <c r="G39" s="8">
-        <v>42421</v>
-      </c>
-      <c r="H39" s="25" t="str">
+        <v>42881</v>
+      </c>
+      <c r="H39" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'27',</v>
       </c>
@@ -6751,10 +6636,8 @@
       <c r="A40" s="10">
         <v>114</v>
       </c>
-      <c r="B40" s="8">
-        <v>42422</v>
-      </c>
-      <c r="C40" s="24">
+      <c r="B40" s="8"/>
+      <c r="C40" s="23">
         <v>9.99</v>
       </c>
       <c r="D40" s="10" t="s">
@@ -6765,9 +6648,9 @@
         <v>('114',</v>
       </c>
       <c r="G40" s="8">
-        <v>42422</v>
-      </c>
-      <c r="H40" s="25" t="str">
+        <v>42882</v>
+      </c>
+      <c r="H40" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6780,10 +6663,8 @@
       <c r="A41" s="10">
         <v>101</v>
       </c>
-      <c r="B41" s="8">
-        <v>42423</v>
-      </c>
-      <c r="C41" s="24">
+      <c r="B41" s="8"/>
+      <c r="C41" s="23">
         <v>9.99</v>
       </c>
       <c r="D41" s="10" t="s">
@@ -6794,9 +6675,9 @@
         <v>('101',</v>
       </c>
       <c r="G41" s="8">
-        <v>42423</v>
-      </c>
-      <c r="H41" s="25" t="str">
+        <v>42893</v>
+      </c>
+      <c r="H41" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6809,10 +6690,8 @@
       <c r="A42" s="10">
         <v>101</v>
       </c>
-      <c r="B42" s="8">
-        <v>42424</v>
-      </c>
-      <c r="C42" s="24">
+      <c r="B42" s="8"/>
+      <c r="C42" s="23">
         <v>9.99</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -6823,9 +6702,9 @@
         <v>('101',</v>
       </c>
       <c r="G42" s="8">
-        <v>42424</v>
-      </c>
-      <c r="H42" s="25" t="str">
+        <v>42894</v>
+      </c>
+      <c r="H42" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6838,10 +6717,8 @@
       <c r="A43" s="10">
         <v>105</v>
       </c>
-      <c r="B43" s="8">
-        <v>42425</v>
-      </c>
-      <c r="C43" s="24">
+      <c r="B43" s="8"/>
+      <c r="C43" s="23">
         <v>9.99</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -6852,9 +6729,9 @@
         <v>('105',</v>
       </c>
       <c r="G43" s="8">
-        <v>42425</v>
-      </c>
-      <c r="H43" s="25" t="str">
+        <v>42901</v>
+      </c>
+      <c r="H43" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6867,10 +6744,8 @@
       <c r="A44" s="10">
         <v>111</v>
       </c>
-      <c r="B44" s="8">
-        <v>42426</v>
-      </c>
-      <c r="C44" s="24">
+      <c r="B44" s="8"/>
+      <c r="C44" s="23">
         <v>9.99</v>
       </c>
       <c r="D44" s="10" t="s">
@@ -6881,9 +6756,9 @@
         <v>('111',</v>
       </c>
       <c r="G44" s="8">
-        <v>42426</v>
-      </c>
-      <c r="H44" s="25" t="str">
+        <v>42905</v>
+      </c>
+      <c r="H44" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6896,10 +6771,8 @@
       <c r="A45" s="10">
         <v>114</v>
       </c>
-      <c r="B45" s="8">
-        <v>42427</v>
-      </c>
-      <c r="C45" s="24">
+      <c r="B45" s="8"/>
+      <c r="C45" s="23">
         <v>9.99</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -6910,9 +6783,9 @@
         <v>('114',</v>
       </c>
       <c r="G45" s="8">
-        <v>42427</v>
-      </c>
-      <c r="H45" s="25" t="str">
+        <v>42913</v>
+      </c>
+      <c r="H45" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6925,10 +6798,8 @@
       <c r="A46" s="10">
         <v>101</v>
       </c>
-      <c r="B46" s="8">
-        <v>42428</v>
-      </c>
-      <c r="C46" s="24">
+      <c r="B46" s="8"/>
+      <c r="C46" s="23">
         <v>9.99</v>
       </c>
       <c r="D46" s="10" t="s">
@@ -6939,9 +6810,9 @@
         <v>('101',</v>
       </c>
       <c r="G46" s="8">
-        <v>42428</v>
-      </c>
-      <c r="H46" s="25" t="str">
+        <v>42923</v>
+      </c>
+      <c r="H46" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6954,10 +6825,8 @@
       <c r="A47" s="10">
         <v>105</v>
       </c>
-      <c r="B47" s="8">
-        <v>42429</v>
-      </c>
-      <c r="C47" s="24">
+      <c r="B47" s="8"/>
+      <c r="C47" s="23">
         <v>9.99</v>
       </c>
       <c r="D47" s="10" t="s">
@@ -6968,9 +6837,9 @@
         <v>('105',</v>
       </c>
       <c r="G47" s="8">
-        <v>42429</v>
-      </c>
-      <c r="H47" s="25" t="str">
+        <v>42931</v>
+      </c>
+      <c r="H47" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -6983,10 +6852,8 @@
       <c r="A48" s="10">
         <v>111</v>
       </c>
-      <c r="B48" s="8">
-        <v>42430</v>
-      </c>
-      <c r="C48" s="24">
+      <c r="B48" s="8"/>
+      <c r="C48" s="23">
         <v>9.99</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -6997,9 +6864,9 @@
         <v>('111',</v>
       </c>
       <c r="G48" s="8">
-        <v>42430</v>
-      </c>
-      <c r="H48" s="25" t="str">
+        <v>42935</v>
+      </c>
+      <c r="H48" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7012,10 +6879,8 @@
       <c r="A49" s="10">
         <v>111</v>
       </c>
-      <c r="B49" s="8">
-        <v>42431</v>
-      </c>
-      <c r="C49" s="24">
+      <c r="B49" s="8"/>
+      <c r="C49" s="23">
         <v>9.99</v>
       </c>
       <c r="D49" s="10" t="s">
@@ -7026,9 +6891,9 @@
         <v>('111',</v>
       </c>
       <c r="G49" s="8">
-        <v>42431</v>
-      </c>
-      <c r="H49" s="25" t="str">
+        <v>42936</v>
+      </c>
+      <c r="H49" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7041,10 +6906,8 @@
       <c r="A50" s="10">
         <v>112</v>
       </c>
-      <c r="B50" s="8">
-        <v>42432</v>
-      </c>
-      <c r="C50" s="24">
+      <c r="B50" s="8"/>
+      <c r="C50" s="23">
         <v>27</v>
       </c>
       <c r="D50" s="10" t="s">
@@ -7055,9 +6918,9 @@
         <v>('112',</v>
       </c>
       <c r="G50" s="8">
-        <v>42432</v>
-      </c>
-      <c r="H50" s="25" t="str">
+        <v>42941</v>
+      </c>
+      <c r="H50" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'27',</v>
       </c>
@@ -7070,10 +6933,8 @@
       <c r="A51" s="10">
         <v>114</v>
       </c>
-      <c r="B51" s="8">
-        <v>42433</v>
-      </c>
-      <c r="C51" s="24">
+      <c r="B51" s="8"/>
+      <c r="C51" s="23">
         <v>9.99</v>
       </c>
       <c r="D51" s="10" t="s">
@@ -7084,9 +6945,9 @@
         <v>('114',</v>
       </c>
       <c r="G51" s="8">
-        <v>42433</v>
-      </c>
-      <c r="H51" s="25" t="str">
+        <v>42943</v>
+      </c>
+      <c r="H51" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7099,10 +6960,8 @@
       <c r="A52" s="10">
         <v>101</v>
       </c>
-      <c r="B52" s="8">
-        <v>42434</v>
-      </c>
-      <c r="C52" s="24">
+      <c r="B52" s="8"/>
+      <c r="C52" s="23">
         <v>9.99</v>
       </c>
       <c r="D52" s="10" t="s">
@@ -7113,9 +6972,9 @@
         <v>('101',</v>
       </c>
       <c r="G52" s="8">
-        <v>42434</v>
-      </c>
-      <c r="H52" s="25" t="str">
+        <v>42954</v>
+      </c>
+      <c r="H52" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7128,10 +6987,8 @@
       <c r="A53" s="10">
         <v>107</v>
       </c>
-      <c r="B53" s="8">
-        <v>42435</v>
-      </c>
-      <c r="C53" s="24">
+      <c r="B53" s="8"/>
+      <c r="C53" s="23">
         <v>9.99</v>
       </c>
       <c r="D53" s="10" t="s">
@@ -7142,9 +6999,9 @@
         <v>('107',</v>
       </c>
       <c r="G53" s="8">
-        <v>42435</v>
-      </c>
-      <c r="H53" s="25" t="str">
+        <v>42956</v>
+      </c>
+      <c r="H53" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7157,10 +7014,8 @@
       <c r="A54" s="10">
         <v>105</v>
       </c>
-      <c r="B54" s="8">
-        <v>42436</v>
-      </c>
-      <c r="C54" s="24">
+      <c r="B54" s="8"/>
+      <c r="C54" s="23">
         <v>9.99</v>
       </c>
       <c r="D54" s="10" t="s">
@@ -7171,9 +7026,9 @@
         <v>('105',</v>
       </c>
       <c r="G54" s="8">
-        <v>42436</v>
-      </c>
-      <c r="H54" s="25" t="str">
+        <v>42962</v>
+      </c>
+      <c r="H54" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7186,10 +7041,8 @@
       <c r="A55" s="10">
         <v>111</v>
       </c>
-      <c r="B55" s="8">
-        <v>42437</v>
-      </c>
-      <c r="C55" s="24">
+      <c r="B55" s="8"/>
+      <c r="C55" s="23">
         <v>9.99</v>
       </c>
       <c r="D55" s="10" t="s">
@@ -7200,9 +7053,9 @@
         <v>('111',</v>
       </c>
       <c r="G55" s="8">
-        <v>42437</v>
-      </c>
-      <c r="H55" s="25" t="str">
+        <v>42966</v>
+      </c>
+      <c r="H55" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7215,10 +7068,8 @@
       <c r="A56" s="10">
         <v>103</v>
       </c>
-      <c r="B56" s="8">
-        <v>42438</v>
-      </c>
-      <c r="C56" s="24">
+      <c r="B56" s="8"/>
+      <c r="C56" s="23">
         <v>27</v>
       </c>
       <c r="D56" s="10" t="s">
@@ -7229,9 +7080,9 @@
         <v>('103',</v>
       </c>
       <c r="G56" s="8">
-        <v>42438</v>
-      </c>
-      <c r="H56" s="25" t="str">
+        <v>42973</v>
+      </c>
+      <c r="H56" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'27',</v>
       </c>
@@ -7244,10 +7095,8 @@
       <c r="A57" s="10">
         <v>114</v>
       </c>
-      <c r="B57" s="8">
-        <v>42439</v>
-      </c>
-      <c r="C57" s="24">
+      <c r="B57" s="8"/>
+      <c r="C57" s="23">
         <v>9.99</v>
       </c>
       <c r="D57" s="10" t="s">
@@ -7258,9 +7107,9 @@
         <v>('114',</v>
       </c>
       <c r="G57" s="8">
-        <v>42439</v>
-      </c>
-      <c r="H57" s="25" t="str">
+        <v>42974</v>
+      </c>
+      <c r="H57" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7273,10 +7122,8 @@
       <c r="A58" s="10">
         <v>101</v>
       </c>
-      <c r="B58" s="8">
-        <v>42440</v>
-      </c>
-      <c r="C58" s="24">
+      <c r="B58" s="8"/>
+      <c r="C58" s="23">
         <v>9.99</v>
       </c>
       <c r="D58" s="10" t="s">
@@ -7287,9 +7134,9 @@
         <v>('101',</v>
       </c>
       <c r="G58" s="8">
-        <v>42440</v>
-      </c>
-      <c r="H58" s="25" t="str">
+        <v>42985</v>
+      </c>
+      <c r="H58" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7302,10 +7149,8 @@
       <c r="A59" s="10">
         <v>107</v>
       </c>
-      <c r="B59" s="8">
-        <v>42441</v>
-      </c>
-      <c r="C59" s="24">
+      <c r="B59" s="8"/>
+      <c r="C59" s="23">
         <v>9.99</v>
       </c>
       <c r="D59" s="10" t="s">
@@ -7316,9 +7161,9 @@
         <v>('107',</v>
       </c>
       <c r="G59" s="8">
-        <v>42441</v>
-      </c>
-      <c r="H59" s="25" t="str">
+        <v>42987</v>
+      </c>
+      <c r="H59" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7331,10 +7176,8 @@
       <c r="A60" s="10">
         <v>108</v>
       </c>
-      <c r="B60" s="8">
-        <v>42442</v>
-      </c>
-      <c r="C60" s="24">
+      <c r="B60" s="8"/>
+      <c r="C60" s="23">
         <v>99</v>
       </c>
       <c r="D60" s="10" t="s">
@@ -7345,9 +7188,9 @@
         <v>('108',</v>
       </c>
       <c r="G60" s="8">
-        <v>42442</v>
-      </c>
-      <c r="H60" s="25" t="str">
+        <v>42987</v>
+      </c>
+      <c r="H60" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'99',</v>
       </c>
@@ -7360,10 +7203,8 @@
       <c r="A61" s="10">
         <v>105</v>
       </c>
-      <c r="B61" s="8">
-        <v>42443</v>
-      </c>
-      <c r="C61" s="24">
+      <c r="B61" s="8"/>
+      <c r="C61" s="23">
         <v>9.99</v>
       </c>
       <c r="D61" s="10" t="s">
@@ -7374,9 +7215,9 @@
         <v>('105',</v>
       </c>
       <c r="G61" s="8">
-        <v>42443</v>
-      </c>
-      <c r="H61" s="25" t="str">
+        <v>42993</v>
+      </c>
+      <c r="H61" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7389,10 +7230,8 @@
       <c r="A62" s="10">
         <v>111</v>
       </c>
-      <c r="B62" s="8">
-        <v>42444</v>
-      </c>
-      <c r="C62" s="24">
+      <c r="B62" s="8"/>
+      <c r="C62" s="23">
         <v>9.99</v>
       </c>
       <c r="D62" s="10" t="s">
@@ -7403,9 +7242,9 @@
         <v>('111',</v>
       </c>
       <c r="G62" s="8">
-        <v>42444</v>
-      </c>
-      <c r="H62" s="25" t="str">
+        <v>42997</v>
+      </c>
+      <c r="H62" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7418,10 +7257,8 @@
       <c r="A63" s="10">
         <v>114</v>
       </c>
-      <c r="B63" s="8">
-        <v>42445</v>
-      </c>
-      <c r="C63" s="24">
+      <c r="B63" s="8"/>
+      <c r="C63" s="23">
         <v>9.99</v>
       </c>
       <c r="D63" s="10" t="s">
@@ -7432,9 +7269,9 @@
         <v>('114',</v>
       </c>
       <c r="G63" s="8">
-        <v>42445</v>
-      </c>
-      <c r="H63" s="25" t="str">
+        <v>43005</v>
+      </c>
+      <c r="H63" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7447,10 +7284,8 @@
       <c r="A64" s="10">
         <v>115</v>
       </c>
-      <c r="B64" s="8">
-        <v>42446</v>
-      </c>
-      <c r="C64" s="24">
+      <c r="B64" s="8"/>
+      <c r="C64" s="23">
         <v>9.99</v>
       </c>
       <c r="D64" s="10" t="s">
@@ -7461,9 +7296,9 @@
         <v>('115',</v>
       </c>
       <c r="G64" s="8">
-        <v>42446</v>
-      </c>
-      <c r="H64" s="25" t="str">
+        <v>43014</v>
+      </c>
+      <c r="H64" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7476,10 +7311,8 @@
       <c r="A65" s="10">
         <v>101</v>
       </c>
-      <c r="B65" s="8">
-        <v>42447</v>
-      </c>
-      <c r="C65" s="24">
+      <c r="B65" s="8"/>
+      <c r="C65" s="23">
         <v>9.99</v>
       </c>
       <c r="D65" s="10" t="s">
@@ -7490,9 +7323,9 @@
         <v>('101',</v>
       </c>
       <c r="G65" s="8">
-        <v>42447</v>
-      </c>
-      <c r="H65" s="25" t="str">
+        <v>43015</v>
+      </c>
+      <c r="H65" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7505,10 +7338,8 @@
       <c r="A66" s="10">
         <v>107</v>
       </c>
-      <c r="B66" s="8">
-        <v>42448</v>
-      </c>
-      <c r="C66" s="24">
+      <c r="B66" s="8"/>
+      <c r="C66" s="23">
         <v>9.99</v>
       </c>
       <c r="D66" s="10" t="s">
@@ -7519,9 +7350,9 @@
         <v>('107',</v>
       </c>
       <c r="G66" s="8">
-        <v>42448</v>
-      </c>
-      <c r="H66" s="25" t="str">
+        <v>43017</v>
+      </c>
+      <c r="H66" s="24" t="str">
         <f t="shared" si="1"/>
         <v>'9.99',</v>
       </c>
@@ -7534,10 +7365,8 @@
       <c r="A67" s="10">
         <v>105</v>
       </c>
-      <c r="B67" s="8">
-        <v>42449</v>
-      </c>
-      <c r="C67" s="24">
+      <c r="B67" s="8"/>
+      <c r="C67" s="23">
         <v>9.99</v>
       </c>
       <c r="D67" s="10" t="s">
@@ -7548,9 +7377,9 @@
         <v>('105',</v>
       </c>
       <c r="G67" s="8">
-        <v>42449</v>
-      </c>
-      <c r="H67" s="25" t="str">
+        <v>43023</v>
+      </c>
+      <c r="H67" s="24" t="str">
         <f t="shared" ref="H67:H93" si="4">CONCATENATE("'",C67,"',")</f>
         <v>'9.99',</v>
       </c>
@@ -7563,10 +7392,8 @@
       <c r="A68" s="10">
         <v>111</v>
       </c>
-      <c r="B68" s="8">
-        <v>42450</v>
-      </c>
-      <c r="C68" s="24">
+      <c r="B68" s="8"/>
+      <c r="C68" s="23">
         <v>9.99</v>
       </c>
       <c r="D68" s="10" t="s">
@@ -7577,9 +7404,9 @@
         <v>('111',</v>
       </c>
       <c r="G68" s="8">
-        <v>42450</v>
-      </c>
-      <c r="H68" s="25" t="str">
+        <v>43027</v>
+      </c>
+      <c r="H68" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -7592,10 +7419,8 @@
       <c r="A69" s="10">
         <v>112</v>
       </c>
-      <c r="B69" s="8">
-        <v>42451</v>
-      </c>
-      <c r="C69" s="24">
+      <c r="B69" s="8"/>
+      <c r="C69" s="23">
         <v>27</v>
       </c>
       <c r="D69" s="10" t="s">
@@ -7606,9 +7431,9 @@
         <v>('112',</v>
       </c>
       <c r="G69" s="8">
-        <v>42451</v>
-      </c>
-      <c r="H69" s="25" t="str">
+        <v>43033</v>
+      </c>
+      <c r="H69" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'27',</v>
       </c>
@@ -7621,10 +7446,8 @@
       <c r="A70" s="10">
         <v>114</v>
       </c>
-      <c r="B70" s="8">
-        <v>42452</v>
-      </c>
-      <c r="C70" s="24">
+      <c r="B70" s="8"/>
+      <c r="C70" s="23">
         <v>9.99</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -7635,9 +7458,9 @@
         <v>('114',</v>
       </c>
       <c r="G70" s="8">
-        <v>42452</v>
-      </c>
-      <c r="H70" s="25" t="str">
+        <v>43035</v>
+      </c>
+      <c r="H70" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -7650,10 +7473,8 @@
       <c r="A71" s="10">
         <v>104</v>
       </c>
-      <c r="B71" s="8">
-        <v>42453</v>
-      </c>
-      <c r="C71" s="24">
+      <c r="B71" s="8"/>
+      <c r="C71" s="23">
         <v>27</v>
       </c>
       <c r="D71" s="10" t="s">
@@ -7664,9 +7485,9 @@
         <v>('104',</v>
       </c>
       <c r="G71" s="8">
-        <v>42453</v>
-      </c>
-      <c r="H71" s="25" t="str">
+        <v>43044</v>
+      </c>
+      <c r="H71" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'27',</v>
       </c>
@@ -7679,10 +7500,8 @@
       <c r="A72" s="10">
         <v>101</v>
       </c>
-      <c r="B72" s="8">
-        <v>42454</v>
-      </c>
-      <c r="C72" s="24">
+      <c r="B72" s="8"/>
+      <c r="C72" s="23">
         <v>9.99</v>
       </c>
       <c r="D72" s="10" t="s">
@@ -7693,9 +7512,9 @@
         <v>('101',</v>
       </c>
       <c r="G72" s="8">
-        <v>42454</v>
-      </c>
-      <c r="H72" s="25" t="str">
+        <v>43046</v>
+      </c>
+      <c r="H72" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -7708,10 +7527,8 @@
       <c r="A73" s="10">
         <v>107</v>
       </c>
-      <c r="B73" s="8">
-        <v>42455</v>
-      </c>
-      <c r="C73" s="24">
+      <c r="B73" s="8"/>
+      <c r="C73" s="23">
         <v>9.99</v>
       </c>
       <c r="D73" s="10" t="s">
@@ -7722,9 +7539,9 @@
         <v>('107',</v>
       </c>
       <c r="G73" s="8">
-        <v>42455</v>
-      </c>
-      <c r="H73" s="25" t="str">
+        <v>43048</v>
+      </c>
+      <c r="H73" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -7737,10 +7554,8 @@
       <c r="A74" s="10">
         <v>105</v>
       </c>
-      <c r="B74" s="8">
-        <v>42456</v>
-      </c>
-      <c r="C74" s="24">
+      <c r="B74" s="8"/>
+      <c r="C74" s="23">
         <v>9.99</v>
       </c>
       <c r="D74" s="10" t="s">
@@ -7751,9 +7566,9 @@
         <v>('105',</v>
       </c>
       <c r="G74" s="8">
-        <v>42456</v>
-      </c>
-      <c r="H74" s="25" t="str">
+        <v>43054</v>
+      </c>
+      <c r="H74" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -7766,10 +7581,8 @@
       <c r="A75" s="10">
         <v>111</v>
       </c>
-      <c r="B75" s="8">
-        <v>42457</v>
-      </c>
-      <c r="C75" s="24">
+      <c r="B75" s="8"/>
+      <c r="C75" s="23">
         <v>9.99</v>
       </c>
       <c r="D75" s="10" t="s">
@@ -7780,9 +7593,9 @@
         <v>('111',</v>
       </c>
       <c r="G75" s="8">
-        <v>42457</v>
-      </c>
-      <c r="H75" s="25" t="str">
+        <v>43058</v>
+      </c>
+      <c r="H75" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -7795,10 +7608,8 @@
       <c r="A76" s="10">
         <v>103</v>
       </c>
-      <c r="B76" s="8">
-        <v>42458</v>
-      </c>
-      <c r="C76" s="24">
+      <c r="B76" s="8"/>
+      <c r="C76" s="23">
         <v>27</v>
       </c>
       <c r="D76" s="10" t="s">
@@ -7809,9 +7620,9 @@
         <v>('103',</v>
       </c>
       <c r="G76" s="8">
-        <v>42458</v>
-      </c>
-      <c r="H76" s="25" t="str">
+        <v>43065</v>
+      </c>
+      <c r="H76" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'27',</v>
       </c>
@@ -7824,10 +7635,8 @@
       <c r="A77" s="10">
         <v>103</v>
       </c>
-      <c r="B77" s="8">
-        <v>42459</v>
-      </c>
-      <c r="C77" s="24">
+      <c r="B77" s="8"/>
+      <c r="C77" s="23">
         <v>27</v>
       </c>
       <c r="D77" s="10" t="s">
@@ -7838,9 +7647,9 @@
         <v>('103',</v>
       </c>
       <c r="G77" s="8">
-        <v>42459</v>
-      </c>
-      <c r="H77" s="25" t="str">
+        <v>43066</v>
+      </c>
+      <c r="H77" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'27',</v>
       </c>
@@ -7853,10 +7662,8 @@
       <c r="A78" s="10">
         <v>114</v>
       </c>
-      <c r="B78" s="8">
-        <v>42460</v>
-      </c>
-      <c r="C78" s="24">
+      <c r="B78" s="8"/>
+      <c r="C78" s="23">
         <v>9.99</v>
       </c>
       <c r="D78" s="10" t="s">
@@ -7867,9 +7674,9 @@
         <v>('114',</v>
       </c>
       <c r="G78" s="8">
-        <v>42460</v>
-      </c>
-      <c r="H78" s="25" t="str">
+        <v>43066</v>
+      </c>
+      <c r="H78" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -7882,10 +7689,8 @@
       <c r="A79" s="10">
         <v>102</v>
       </c>
-      <c r="B79" s="8">
-        <v>42461</v>
-      </c>
-      <c r="C79" s="24">
+      <c r="B79" s="8"/>
+      <c r="C79" s="23">
         <v>9.99</v>
       </c>
       <c r="D79" s="10" t="s">
@@ -7896,9 +7701,9 @@
         <v>('102',</v>
       </c>
       <c r="G79" s="8">
-        <v>42461</v>
-      </c>
-      <c r="H79" s="25" t="str">
+        <v>43068</v>
+      </c>
+      <c r="H79" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -7911,10 +7716,8 @@
       <c r="A80" s="10">
         <v>101</v>
       </c>
-      <c r="B80" s="8">
-        <v>42462</v>
-      </c>
-      <c r="C80" s="24">
+      <c r="B80" s="8"/>
+      <c r="C80" s="23">
         <v>9.99</v>
       </c>
       <c r="D80" s="10" t="s">
@@ -7925,9 +7728,9 @@
         <v>('101',</v>
       </c>
       <c r="G80" s="8">
-        <v>42462</v>
-      </c>
-      <c r="H80" s="25" t="str">
+        <v>43076</v>
+      </c>
+      <c r="H80" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -7940,10 +7743,8 @@
       <c r="A81" s="10">
         <v>107</v>
       </c>
-      <c r="B81" s="8">
-        <v>42463</v>
-      </c>
-      <c r="C81" s="24">
+      <c r="B81" s="8"/>
+      <c r="C81" s="23">
         <v>9.99</v>
       </c>
       <c r="D81" s="10" t="s">
@@ -7954,9 +7755,9 @@
         <v>('107',</v>
       </c>
       <c r="G81" s="8">
-        <v>42463</v>
-      </c>
-      <c r="H81" s="25" t="str">
+        <v>43078</v>
+      </c>
+      <c r="H81" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -7969,10 +7770,8 @@
       <c r="A82" s="10">
         <v>105</v>
       </c>
-      <c r="B82" s="8">
-        <v>42464</v>
-      </c>
-      <c r="C82" s="24">
+      <c r="B82" s="8"/>
+      <c r="C82" s="23">
         <v>9.99</v>
       </c>
       <c r="D82" s="10" t="s">
@@ -7983,9 +7782,9 @@
         <v>('105',</v>
       </c>
       <c r="G82" s="8">
-        <v>42464</v>
-      </c>
-      <c r="H82" s="25" t="str">
+        <v>43084</v>
+      </c>
+      <c r="H82" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -7998,10 +7797,8 @@
       <c r="A83" s="10">
         <v>111</v>
       </c>
-      <c r="B83" s="8">
-        <v>42465</v>
-      </c>
-      <c r="C83" s="24">
+      <c r="B83" s="8"/>
+      <c r="C83" s="23">
         <v>9.99</v>
       </c>
       <c r="D83" s="10" t="s">
@@ -8012,9 +7809,9 @@
         <v>('111',</v>
       </c>
       <c r="G83" s="8">
-        <v>42465</v>
-      </c>
-      <c r="H83" s="25" t="str">
+        <v>43088</v>
+      </c>
+      <c r="H83" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -8027,10 +7824,8 @@
       <c r="A84" s="10">
         <v>110</v>
       </c>
-      <c r="B84" s="8">
-        <v>42466</v>
-      </c>
-      <c r="C84" s="24">
+      <c r="B84" s="8"/>
+      <c r="C84" s="23">
         <v>9.99</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -8041,9 +7836,9 @@
         <v>('110',</v>
       </c>
       <c r="G84" s="8">
-        <v>42466</v>
-      </c>
-      <c r="H84" s="25" t="str">
+        <v>43091</v>
+      </c>
+      <c r="H84" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -8056,10 +7851,8 @@
       <c r="A85" s="10">
         <v>114</v>
       </c>
-      <c r="B85" s="8">
-        <v>42467</v>
-      </c>
-      <c r="C85" s="24">
+      <c r="B85" s="8"/>
+      <c r="C85" s="23">
         <v>9.99</v>
       </c>
       <c r="D85" s="10" t="s">
@@ -8070,9 +7863,9 @@
         <v>('114',</v>
       </c>
       <c r="G85" s="8">
-        <v>42467</v>
-      </c>
-      <c r="H85" s="25" t="str">
+        <v>43096</v>
+      </c>
+      <c r="H85" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -8085,10 +7878,8 @@
       <c r="A86" s="10">
         <v>102</v>
       </c>
-      <c r="B86" s="8">
-        <v>42468</v>
-      </c>
-      <c r="C86" s="24">
+      <c r="B86" s="8"/>
+      <c r="C86" s="23">
         <v>9.99</v>
       </c>
       <c r="D86" s="10" t="s">
@@ -8099,9 +7890,9 @@
         <v>('102',</v>
       </c>
       <c r="G86" s="8">
-        <v>42468</v>
-      </c>
-      <c r="H86" s="25" t="str">
+        <v>43098</v>
+      </c>
+      <c r="H86" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -8114,10 +7905,8 @@
       <c r="A87" s="10">
         <v>101</v>
       </c>
-      <c r="B87" s="8">
-        <v>42469</v>
-      </c>
-      <c r="C87" s="24">
+      <c r="B87" s="8"/>
+      <c r="C87" s="23">
         <v>9.99</v>
       </c>
       <c r="D87" s="10" t="s">
@@ -8128,9 +7917,9 @@
         <v>('101',</v>
       </c>
       <c r="G87" s="8">
-        <v>42469</v>
-      </c>
-      <c r="H87" s="25" t="str">
+        <v>43107</v>
+      </c>
+      <c r="H87" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -8143,10 +7932,8 @@
       <c r="A88" s="10">
         <v>107</v>
       </c>
-      <c r="B88" s="8">
-        <v>42470</v>
-      </c>
-      <c r="C88" s="24">
+      <c r="B88" s="8"/>
+      <c r="C88" s="23">
         <v>9.99</v>
       </c>
       <c r="D88" s="10" t="s">
@@ -8157,9 +7944,9 @@
         <v>('107',</v>
       </c>
       <c r="G88" s="8">
-        <v>42470</v>
-      </c>
-      <c r="H88" s="25" t="str">
+        <v>43109</v>
+      </c>
+      <c r="H88" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -8172,10 +7959,8 @@
       <c r="A89" s="10">
         <v>105</v>
       </c>
-      <c r="B89" s="8">
-        <v>42471</v>
-      </c>
-      <c r="C89" s="24">
+      <c r="B89" s="8"/>
+      <c r="C89" s="23">
         <v>9.99</v>
       </c>
       <c r="D89" s="10" t="s">
@@ -8186,9 +7971,9 @@
         <v>('105',</v>
       </c>
       <c r="G89" s="8">
-        <v>42471</v>
-      </c>
-      <c r="H89" s="25" t="str">
+        <v>43115</v>
+      </c>
+      <c r="H89" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -8201,10 +7986,8 @@
       <c r="A90" s="10">
         <v>111</v>
       </c>
-      <c r="B90" s="8">
-        <v>42472</v>
-      </c>
-      <c r="C90" s="24">
+      <c r="B90" s="8"/>
+      <c r="C90" s="23">
         <v>9.99</v>
       </c>
       <c r="D90" s="10" t="s">
@@ -8215,9 +7998,9 @@
         <v>('111',</v>
       </c>
       <c r="G90" s="8">
-        <v>42472</v>
-      </c>
-      <c r="H90" s="25" t="str">
+        <v>43119</v>
+      </c>
+      <c r="H90" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -8230,10 +8013,8 @@
       <c r="A91" s="10">
         <v>110</v>
       </c>
-      <c r="B91" s="8">
-        <v>42473</v>
-      </c>
-      <c r="C91" s="24">
+      <c r="B91" s="8"/>
+      <c r="C91" s="23">
         <v>9.99</v>
       </c>
       <c r="D91" s="10" t="s">
@@ -8244,9 +8025,9 @@
         <v>('110',</v>
       </c>
       <c r="G91" s="8">
-        <v>42473</v>
-      </c>
-      <c r="H91" s="25" t="str">
+        <v>43122</v>
+      </c>
+      <c r="H91" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -8259,10 +8040,8 @@
       <c r="A92" s="10">
         <v>112</v>
       </c>
-      <c r="B92" s="8">
-        <v>42474</v>
-      </c>
-      <c r="C92" s="24">
+      <c r="B92" s="8"/>
+      <c r="C92" s="23">
         <v>27</v>
       </c>
       <c r="D92" s="10" t="s">
@@ -8273,9 +8052,9 @@
         <v>('112',</v>
       </c>
       <c r="G92" s="8">
-        <v>42474</v>
-      </c>
-      <c r="H92" s="25" t="str">
+        <v>43125</v>
+      </c>
+      <c r="H92" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'27',</v>
       </c>
@@ -8288,10 +8067,8 @@
       <c r="A93" s="10">
         <v>114</v>
       </c>
-      <c r="B93" s="8">
-        <v>42475</v>
-      </c>
-      <c r="C93" s="24">
+      <c r="B93" s="8"/>
+      <c r="C93" s="23">
         <v>9.99</v>
       </c>
       <c r="D93" s="10" t="s">
@@ -8302,9 +8079,9 @@
         <v>('114',</v>
       </c>
       <c r="G93" s="8">
-        <v>42475</v>
-      </c>
-      <c r="H93" s="25" t="str">
+        <v>43127</v>
+      </c>
+      <c r="H93" s="24" t="str">
         <f t="shared" si="4"/>
         <v>'9.99',</v>
       </c>
@@ -8314,9 +8091,10 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H94" s="25"/>
+      <c r="H94" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>